--- a/чистый бланк/Заказ Новое Время 01,06. Мелитополь№1.xlsx
+++ b/чистый бланк/Заказ Новое Время 01,06. Мелитополь№1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\чистый бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E1C664-1D93-44E8-8930-D4D882A7F7AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BC061A-2E06-4654-9EC9-CB5E16CCAA28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,11 +19,11 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Бланк!$B$9:$AY$478</definedName>
-    <definedName name="кол_во_инд.__упак_к">Бланк!$AC$3:$AC$916</definedName>
-    <definedName name="номин.вес_нетто__кг">Бланк!$W$3:$W$916</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Бланк!$B$9:$AY$479</definedName>
+    <definedName name="кол_во_инд.__упак_к">Бланк!$AC$3:$AC$917</definedName>
+    <definedName name="номин.вес_нетто__кг">Бланк!$W$3:$W$917</definedName>
   </definedNames>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="478">
   <si>
     <t xml:space="preserve">Грузополучатель: </t>
   </si>
@@ -971,9 +971,6 @@
     <t>Ветчины</t>
   </si>
   <si>
-    <t>ВЕТЧ.ЛЮБИТЕЛЬСКАЯ п/о</t>
-  </si>
-  <si>
     <t>ВЕТЧ.ЛЮБИТЕЛЬСКАЯ п/о 0.4кг 10шт.</t>
   </si>
   <si>
@@ -1467,6 +1464,12 @@
   </si>
   <si>
     <t>МОЛОЧНЫЕ КЛАССИЧЕСКИЕ сос п/о мгс 2*4</t>
+  </si>
+  <si>
+    <t>ВЕТЧ.НЕЖНАЯ Коровино п/о</t>
+  </si>
+  <si>
+    <t>СВИНИНА ДЕЛИКАТЕСНАЯ к/в мл/к в/у 0.3кг</t>
   </si>
 </sst>
 </file>
@@ -2604,11 +2607,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K2001"/>
+  <dimension ref="A1:K2002"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A464" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K474" sqref="K474"/>
+      <pane ySplit="9" topLeftCell="A468" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K477" sqref="K477"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5101,7 +5104,7 @@
         <v>6767</v>
       </c>
       <c r="B90" s="39" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C90" s="30" t="s">
         <v>21</v>
@@ -5125,7 +5128,7 @@
         <v>6297</v>
       </c>
       <c r="B91" s="39" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C91" s="30" t="s">
         <v>23</v>
@@ -5872,7 +5875,7 @@
         <v>6829</v>
       </c>
       <c r="B116" s="63" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C116" s="60" t="s">
         <v>21</v>
@@ -6699,7 +6702,7 @@
         <v>6308</v>
       </c>
       <c r="B144" s="41" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C144" s="30" t="s">
         <v>21</v>
@@ -11724,17 +11727,18 @@
       <c r="J313" s="53"/>
     </row>
     <row r="314" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A314" s="66">
-        <v>6756</v>
+      <c r="A314" s="66" t="str">
+        <f t="shared" ref="A314:A347" si="25">RIGHT(D314,4)</f>
+        <v>6865</v>
       </c>
       <c r="B314" s="28" t="s">
-        <v>311</v>
+        <v>476</v>
       </c>
       <c r="C314" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D314" s="29">
-        <v>1001092446756</v>
+        <v>1001095716865</v>
       </c>
       <c r="E314" s="24"/>
       <c r="F314" s="23">
@@ -11754,11 +11758,11 @@
     </row>
     <row r="315" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="66" t="str">
-        <f t="shared" ref="A315:A346" si="25">RIGHT(D315,4)</f>
+        <f t="shared" si="25"/>
         <v>6755</v>
       </c>
       <c r="B315" s="28" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C315" s="30" t="s">
         <v>29</v>
@@ -11788,7 +11792,7 @@
         <v>3215</v>
       </c>
       <c r="B316" s="93" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C316" s="30" t="s">
         <v>29</v>
@@ -11818,7 +11822,7 @@
         <v>6645</v>
       </c>
       <c r="B317" s="57" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C317" s="30" t="s">
         <v>23</v>
@@ -11848,7 +11852,7 @@
         <v>6026</v>
       </c>
       <c r="B318" s="57" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C318" s="30" t="s">
         <v>21</v>
@@ -11878,7 +11882,7 @@
         <v>6025</v>
       </c>
       <c r="B319" s="57" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C319" s="30" t="s">
         <v>21</v>
@@ -11908,7 +11912,7 @@
         <v>5887</v>
       </c>
       <c r="B320" s="57" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C320" s="30" t="s">
         <v>21</v>
@@ -11938,7 +11942,7 @@
         <v>5224</v>
       </c>
       <c r="B321" s="57" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C321" s="30" t="s">
         <v>21</v>
@@ -11968,7 +11972,7 @@
         <v>6470</v>
       </c>
       <c r="B322" s="57" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C322" s="30" t="s">
         <v>21</v>
@@ -11998,7 +12002,7 @@
         <v>5452</v>
       </c>
       <c r="B323" s="57" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C323" s="30" t="s">
         <v>21</v>
@@ -12028,7 +12032,7 @@
         <v>5634</v>
       </c>
       <c r="B324" s="57" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C324" s="30" t="s">
         <v>21</v>
@@ -12058,7 +12062,7 @@
         <v>6480</v>
       </c>
       <c r="B325" s="57" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C325" s="30" t="s">
         <v>21</v>
@@ -12088,7 +12092,7 @@
         <v>6504</v>
       </c>
       <c r="B326" s="57" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C326" s="30" t="s">
         <v>23</v>
@@ -12118,7 +12122,7 @@
         <v>6196</v>
       </c>
       <c r="B327" s="57" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C327" s="30" t="s">
         <v>23</v>
@@ -12148,7 +12152,7 @@
         <v>5495</v>
       </c>
       <c r="B328" s="57" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C328" s="30" t="s">
         <v>23</v>
@@ -12178,7 +12182,7 @@
         <v>6027</v>
       </c>
       <c r="B329" s="57" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C329" s="30" t="s">
         <v>23</v>
@@ -12208,7 +12212,7 @@
         <v>6495</v>
       </c>
       <c r="B330" s="57" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C330" s="30" t="s">
         <v>23</v>
@@ -12238,7 +12242,7 @@
         <v>6411</v>
       </c>
       <c r="B331" s="57" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C331" s="30" t="s">
         <v>23</v>
@@ -12268,7 +12272,7 @@
         <v>5984</v>
       </c>
       <c r="B332" s="57" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C332" s="30" t="s">
         <v>21</v>
@@ -12298,14 +12302,14 @@
         <v/>
       </c>
       <c r="B333" s="52" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C333" s="52"/>
       <c r="D333" s="52"/>
       <c r="E333" s="52"/>
       <c r="F333" s="52"/>
       <c r="G333" s="23">
-        <f t="shared" ref="G333:G364" si="28">E333*F333</f>
+        <f t="shared" ref="G333:G365" si="28">E333*F333</f>
         <v>0</v>
       </c>
       <c r="H333" s="52"/>
@@ -12318,7 +12322,7 @@
         <v>6655</v>
       </c>
       <c r="B334" s="42" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C334" s="30" t="s">
         <v>29</v>
@@ -12346,7 +12350,7 @@
         <v>6500</v>
       </c>
       <c r="B335" s="42" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C335" s="30" t="s">
         <v>23</v>
@@ -12376,7 +12380,7 @@
         <v>6279</v>
       </c>
       <c r="B336" s="42" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C336" s="30" t="s">
         <v>23</v>
@@ -12406,7 +12410,7 @@
         <v>6448</v>
       </c>
       <c r="B337" s="42" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C337" s="30" t="s">
         <v>29</v>
@@ -12436,7 +12440,7 @@
         <v>6206</v>
       </c>
       <c r="B338" s="42" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C338" s="30" t="s">
         <v>29</v>
@@ -12463,147 +12467,143 @@
     <row r="339" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="66" t="str">
         <f t="shared" si="25"/>
-        <v>6489</v>
+        <v>6281</v>
       </c>
       <c r="B339" s="42" t="s">
-        <v>336</v>
+        <v>477</v>
       </c>
       <c r="C339" s="30" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D339" s="27">
-        <v>1001080346489</v>
+        <v>1001082576281</v>
       </c>
       <c r="E339" s="24"/>
       <c r="F339" s="23">
-        <v>1.375</v>
+        <v>0.3</v>
       </c>
       <c r="G339" s="23">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="H339" s="14">
-        <v>5.5</v>
-      </c>
-      <c r="I339" s="14">
-        <v>45</v>
-      </c>
+        <f t="shared" ref="G339" si="29">E339*F339</f>
+        <v>0</v>
+      </c>
+      <c r="H339" s="14"/>
+      <c r="I339" s="14"/>
       <c r="J339" s="33"/>
     </row>
     <row r="340" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="66" t="str">
         <f t="shared" si="25"/>
-        <v>6620</v>
+        <v>6489</v>
       </c>
       <c r="B340" s="42" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C340" s="30" t="s">
         <v>29</v>
       </c>
       <c r="D340" s="27">
-        <v>1001081596620</v>
+        <v>1001080346489</v>
       </c>
       <c r="E340" s="24"/>
       <c r="F340" s="23">
-        <v>1.1339999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="G340" s="23">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H340" s="14">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="I340" s="14">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="J340" s="33"/>
     </row>
     <row r="341" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="66" t="str">
         <f t="shared" si="25"/>
-        <v>6008</v>
+        <v>6620</v>
       </c>
       <c r="B341" s="42" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C341" s="30" t="s">
         <v>29</v>
       </c>
       <c r="D341" s="27">
-        <v>1001084856008</v>
+        <v>1001081596620</v>
       </c>
       <c r="E341" s="24"/>
       <c r="F341" s="23">
-        <v>0.3</v>
+        <v>1.1339999999999999</v>
       </c>
       <c r="G341" s="23">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H341" s="14">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="I341" s="14">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J341" s="33"/>
     </row>
     <row r="342" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="66" t="str">
         <f t="shared" si="25"/>
-        <v>6235</v>
+        <v>6008</v>
       </c>
       <c r="B342" s="42" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C342" s="30" t="s">
         <v>29</v>
       </c>
       <c r="D342" s="27">
-        <v>1001083426235</v>
+        <v>1001084856008</v>
       </c>
       <c r="E342" s="24"/>
       <c r="F342" s="23">
-        <v>1.234</v>
+        <v>0.3</v>
       </c>
       <c r="G342" s="23">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H342" s="14">
-        <v>3.7</v>
+        <v>1.8</v>
       </c>
       <c r="I342" s="14">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J342" s="33"/>
     </row>
     <row r="343" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="66" t="str">
         <f t="shared" si="25"/>
-        <v>6277</v>
+        <v>6235</v>
       </c>
       <c r="B343" s="42" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C343" s="30" t="s">
         <v>29</v>
       </c>
       <c r="D343" s="27">
-        <v>1001080296277</v>
+        <v>1001083426235</v>
       </c>
       <c r="E343" s="24"/>
       <c r="F343" s="23">
-        <v>0.3</v>
+        <v>1.234</v>
       </c>
       <c r="G343" s="23">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H343" s="14">
-        <v>1.8</v>
+        <v>3.7</v>
       </c>
       <c r="I343" s="14">
         <v>45</v>
@@ -12613,16 +12613,16 @@
     <row r="344" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="66" t="str">
         <f t="shared" si="25"/>
-        <v>6842</v>
+        <v>6277</v>
       </c>
       <c r="B344" s="42" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C344" s="30" t="s">
         <v>29</v>
       </c>
       <c r="D344" s="27">
-        <v>1001080216842</v>
+        <v>1001080296277</v>
       </c>
       <c r="E344" s="24"/>
       <c r="F344" s="23">
@@ -12636,23 +12636,23 @@
         <v>1.8</v>
       </c>
       <c r="I344" s="14">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="J344" s="33"/>
     </row>
     <row r="345" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="66" t="str">
         <f t="shared" si="25"/>
-        <v>6488</v>
+        <v>6842</v>
       </c>
       <c r="B345" s="42" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C345" s="30" t="s">
         <v>29</v>
       </c>
       <c r="D345" s="27">
-        <v>1001080346488</v>
+        <v>1001080216842</v>
       </c>
       <c r="E345" s="24"/>
       <c r="F345" s="23">
@@ -12666,23 +12666,23 @@
         <v>1.8</v>
       </c>
       <c r="I345" s="14">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="J345" s="33"/>
     </row>
     <row r="346" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="66" t="str">
         <f t="shared" si="25"/>
-        <v>6640</v>
+        <v>6488</v>
       </c>
       <c r="B346" s="42" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C346" s="30" t="s">
         <v>29</v>
       </c>
       <c r="D346" s="27">
-        <v>1001080346640</v>
+        <v>1001080346488</v>
       </c>
       <c r="E346" s="24"/>
       <c r="F346" s="23">
@@ -12693,7 +12693,7 @@
         <v>0</v>
       </c>
       <c r="H346" s="14">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="I346" s="14">
         <v>45</v>
@@ -12701,18 +12701,18 @@
       <c r="J346" s="33"/>
     </row>
     <row r="347" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A347" s="67" t="str">
-        <f t="shared" ref="A347:A366" si="29">RIGHT(D347,4)</f>
-        <v>6487</v>
-      </c>
-      <c r="B347" s="65" t="s">
-        <v>344</v>
-      </c>
-      <c r="C347" s="60" t="s">
+      <c r="A347" s="66" t="str">
+        <f t="shared" si="25"/>
+        <v>6640</v>
+      </c>
+      <c r="B347" s="42" t="s">
+        <v>342</v>
+      </c>
+      <c r="C347" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D347" s="61">
-        <v>1001085156487</v>
+      <c r="D347" s="27">
+        <v>1001080346640</v>
       </c>
       <c r="E347" s="24"/>
       <c r="F347" s="23">
@@ -12723,26 +12723,26 @@
         <v>0</v>
       </c>
       <c r="H347" s="14">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="I347" s="14">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="J347" s="33"/>
     </row>
     <row r="348" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A348" s="66" t="str">
-        <f t="shared" si="29"/>
-        <v>6444</v>
-      </c>
-      <c r="B348" s="42" t="s">
-        <v>345</v>
-      </c>
-      <c r="C348" s="30" t="s">
+      <c r="A348" s="67" t="str">
+        <f t="shared" ref="A348:A367" si="30">RIGHT(D348,4)</f>
+        <v>6487</v>
+      </c>
+      <c r="B348" s="65" t="s">
+        <v>343</v>
+      </c>
+      <c r="C348" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="D348" s="27">
-        <v>1001085156444</v>
+      <c r="D348" s="61">
+        <v>1001085156487</v>
       </c>
       <c r="E348" s="24"/>
       <c r="F348" s="23">
@@ -12756,64 +12756,64 @@
         <v>1.8</v>
       </c>
       <c r="I348" s="14">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="J348" s="33"/>
     </row>
     <row r="349" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="66" t="str">
-        <f t="shared" si="29"/>
-        <v>4819</v>
+        <f t="shared" si="30"/>
+        <v>6444</v>
       </c>
       <c r="B349" s="42" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C349" s="30" t="s">
         <v>29</v>
       </c>
       <c r="D349" s="27">
-        <v>1001083444819</v>
+        <v>1001085156444</v>
       </c>
       <c r="E349" s="24"/>
       <c r="F349" s="23">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="G349" s="23">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H349" s="14">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="I349" s="14">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="J349" s="33"/>
     </row>
     <row r="350" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="66" t="str">
-        <f t="shared" si="29"/>
-        <v>5938</v>
+        <f t="shared" si="30"/>
+        <v>4819</v>
       </c>
       <c r="B350" s="42" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C350" s="30" t="s">
         <v>29</v>
       </c>
       <c r="D350" s="27">
-        <v>1001084845938</v>
+        <v>1001083444819</v>
       </c>
       <c r="E350" s="24"/>
       <c r="F350" s="23">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="G350" s="23">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H350" s="14">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="I350" s="14">
         <v>30</v>
@@ -12822,17 +12822,17 @@
     </row>
     <row r="351" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="66" t="str">
-        <f t="shared" si="29"/>
-        <v>4691</v>
+        <f t="shared" si="30"/>
+        <v>5938</v>
       </c>
       <c r="B351" s="42" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C351" s="30" t="s">
         <v>29</v>
       </c>
       <c r="D351" s="27">
-        <v>1001083424691</v>
+        <v>1001084845938</v>
       </c>
       <c r="E351" s="24"/>
       <c r="F351" s="23">
@@ -12846,23 +12846,23 @@
         <v>1.8</v>
       </c>
       <c r="I351" s="14">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="J351" s="33"/>
     </row>
     <row r="352" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="66" t="str">
-        <f t="shared" si="29"/>
-        <v>6492</v>
+        <f t="shared" si="30"/>
+        <v>4691</v>
       </c>
       <c r="B352" s="42" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C352" s="30" t="s">
         <v>29</v>
       </c>
       <c r="D352" s="27">
-        <v>1001084226492</v>
+        <v>1001083424691</v>
       </c>
       <c r="E352" s="24"/>
       <c r="F352" s="23">
@@ -12882,28 +12882,28 @@
     </row>
     <row r="353" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="66" t="str">
-        <f t="shared" si="29"/>
-        <v>6493</v>
+        <f t="shared" si="30"/>
+        <v>6492</v>
       </c>
       <c r="B353" s="42" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C353" s="30" t="s">
         <v>29</v>
       </c>
       <c r="D353" s="27">
-        <v>1001084226493</v>
+        <v>1001084226492</v>
       </c>
       <c r="E353" s="24"/>
       <c r="F353" s="23">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="G353" s="23">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H353" s="14">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="I353" s="14">
         <v>45</v>
@@ -12912,17 +12912,17 @@
     </row>
     <row r="354" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="66" t="str">
-        <f t="shared" si="29"/>
-        <v>4814</v>
+        <f t="shared" si="30"/>
+        <v>6493</v>
       </c>
       <c r="B354" s="42" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C354" s="30" t="s">
         <v>29</v>
       </c>
       <c r="D354" s="27">
-        <v>1001084214814</v>
+        <v>1001084226493</v>
       </c>
       <c r="E354" s="24"/>
       <c r="F354" s="23">
@@ -12936,83 +12936,83 @@
         <v>3</v>
       </c>
       <c r="I354" s="14">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="J354" s="33"/>
     </row>
     <row r="355" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="66" t="str">
-        <f t="shared" si="29"/>
-        <v>6208</v>
+        <f t="shared" si="30"/>
+        <v>4814</v>
       </c>
       <c r="B355" s="42" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C355" s="30" t="s">
         <v>29</v>
       </c>
       <c r="D355" s="27">
-        <v>1001220226208</v>
+        <v>1001084214814</v>
       </c>
       <c r="E355" s="24"/>
       <c r="F355" s="23">
-        <v>0.15</v>
+        <v>0.5</v>
       </c>
       <c r="G355" s="23">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H355" s="14">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="I355" s="14">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="J355" s="33"/>
     </row>
     <row r="356" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="66" t="str">
-        <f t="shared" si="29"/>
-        <v>6477</v>
+        <f t="shared" si="30"/>
+        <v>6208</v>
       </c>
       <c r="B356" s="42" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C356" s="30" t="s">
         <v>29</v>
       </c>
       <c r="D356" s="27">
-        <v>1001220226477</v>
+        <v>1001220226208</v>
       </c>
       <c r="E356" s="24"/>
       <c r="F356" s="23">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="G356" s="23">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H356" s="14">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="I356" s="14">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="J356" s="33"/>
     </row>
     <row r="357" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="66" t="str">
-        <f t="shared" si="29"/>
-        <v>6499</v>
+        <f t="shared" si="30"/>
+        <v>6477</v>
       </c>
       <c r="B357" s="42" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C357" s="30" t="s">
         <v>29</v>
       </c>
       <c r="D357" s="27">
-        <v>1001225206499</v>
+        <v>1001220226477</v>
       </c>
       <c r="E357" s="24"/>
       <c r="F357" s="23">
@@ -13023,26 +13023,26 @@
         <v>0</v>
       </c>
       <c r="H357" s="14">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="I357" s="14">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="J357" s="33"/>
     </row>
     <row r="358" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="66" t="str">
-        <f t="shared" si="29"/>
-        <v>6137</v>
+        <f t="shared" si="30"/>
+        <v>6499</v>
       </c>
       <c r="B358" s="42" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C358" s="30" t="s">
         <v>29</v>
       </c>
       <c r="D358" s="27">
-        <v>1001225016137</v>
+        <v>1001225206499</v>
       </c>
       <c r="E358" s="24"/>
       <c r="F358" s="23">
@@ -13053,7 +13053,7 @@
         <v>0</v>
       </c>
       <c r="H358" s="14">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I358" s="14">
         <v>45</v>
@@ -13062,28 +13062,28 @@
     </row>
     <row r="359" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="66" t="str">
-        <f t="shared" si="29"/>
-        <v>6500</v>
+        <f t="shared" si="30"/>
+        <v>6137</v>
       </c>
       <c r="B359" s="42" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C359" s="30" t="s">
         <v>29</v>
       </c>
       <c r="D359" s="27">
-        <v>1001225156500</v>
+        <v>1001225016137</v>
       </c>
       <c r="E359" s="24"/>
       <c r="F359" s="23">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="G359" s="23">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H359" s="14">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="I359" s="14">
         <v>45</v>
@@ -13092,28 +13092,28 @@
     </row>
     <row r="360" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="66" t="str">
-        <f t="shared" si="29"/>
-        <v>6476</v>
+        <f t="shared" si="30"/>
+        <v>6500</v>
       </c>
       <c r="B360" s="42" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C360" s="30" t="s">
         <v>29</v>
       </c>
       <c r="D360" s="27">
-        <v>1001225156476</v>
+        <v>1001225156500</v>
       </c>
       <c r="E360" s="24"/>
       <c r="F360" s="23">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="G360" s="23">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H360" s="14">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="I360" s="14">
         <v>45</v>
@@ -13122,28 +13122,28 @@
     </row>
     <row r="361" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="66" t="str">
-        <f t="shared" si="29"/>
-        <v>6278</v>
+        <f t="shared" si="30"/>
+        <v>6476</v>
       </c>
       <c r="B361" s="42" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C361" s="30" t="s">
         <v>29</v>
       </c>
       <c r="D361" s="27">
-        <v>1001220296278</v>
+        <v>1001225156476</v>
       </c>
       <c r="E361" s="24"/>
       <c r="F361" s="23">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="G361" s="23">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H361" s="14">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I361" s="14">
         <v>45</v>
@@ -13152,28 +13152,28 @@
     </row>
     <row r="362" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="66" t="str">
-        <f t="shared" si="29"/>
-        <v>6655</v>
+        <f t="shared" si="30"/>
+        <v>6278</v>
       </c>
       <c r="B362" s="42" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C362" s="30" t="s">
         <v>29</v>
       </c>
       <c r="D362" s="27">
-        <v>1001224186655</v>
+        <v>1001220296278</v>
       </c>
       <c r="E362" s="24"/>
       <c r="F362" s="23">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="G362" s="23">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H362" s="14">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="I362" s="14">
         <v>45</v>
@@ -13182,28 +13182,28 @@
     </row>
     <row r="363" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="66" t="str">
-        <f t="shared" si="29"/>
-        <v>6582</v>
+        <f t="shared" si="30"/>
+        <v>6655</v>
       </c>
       <c r="B363" s="42" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C363" s="30" t="s">
         <v>29</v>
       </c>
       <c r="D363" s="27">
-        <v>1001222576582</v>
+        <v>1001224186655</v>
       </c>
       <c r="E363" s="24"/>
       <c r="F363" s="23">
-        <v>0.35</v>
+        <v>0.1</v>
       </c>
       <c r="G363" s="23">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H363" s="14">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="I363" s="14">
         <v>45</v>
@@ -13212,133 +13212,133 @@
     </row>
     <row r="364" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="66" t="str">
-        <f t="shared" si="29"/>
-        <v>6445</v>
+        <f t="shared" si="30"/>
+        <v>6582</v>
       </c>
       <c r="B364" s="42" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C364" s="30" t="s">
         <v>29</v>
       </c>
       <c r="D364" s="27">
-        <v>1001233296445</v>
+        <v>1001222576582</v>
       </c>
       <c r="E364" s="24"/>
       <c r="F364" s="23">
-        <v>0.18</v>
+        <v>0.35</v>
       </c>
       <c r="G364" s="23">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H364" s="14">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="I364" s="14">
         <v>45</v>
       </c>
       <c r="J364" s="33"/>
     </row>
-    <row r="365" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="66" t="str">
-        <f t="shared" si="29"/>
-        <v>6449</v>
+        <f t="shared" si="30"/>
+        <v>6445</v>
       </c>
       <c r="B365" s="42" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C365" s="30" t="s">
         <v>29</v>
       </c>
       <c r="D365" s="27">
-        <v>1001234916449</v>
+        <v>1001233296445</v>
       </c>
       <c r="E365" s="24"/>
       <c r="F365" s="23">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="G365" s="23">
-        <f t="shared" ref="G365:G396" si="30">E365*F365</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H365" s="14">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="I365" s="14">
         <v>45</v>
       </c>
       <c r="J365" s="33"/>
     </row>
-    <row r="366" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A366" s="66" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
+        <v>6449</v>
+      </c>
+      <c r="B366" s="42" t="s">
+        <v>361</v>
+      </c>
+      <c r="C366" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D366" s="27">
+        <v>1001234916449</v>
+      </c>
+      <c r="E366" s="24"/>
+      <c r="F366" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="G366" s="23">
+        <f t="shared" ref="G366:G397" si="31">E366*F366</f>
+        <v>0</v>
+      </c>
+      <c r="H366" s="14">
+        <v>1</v>
+      </c>
+      <c r="I366" s="14">
+        <v>45</v>
+      </c>
+      <c r="J366" s="33"/>
+    </row>
+    <row r="367" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A367" s="66" t="str">
+        <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="B366" s="52" t="s">
+      <c r="B367" s="52" t="s">
+        <v>362</v>
+      </c>
+      <c r="C367" s="52"/>
+      <c r="D367" s="52"/>
+      <c r="E367" s="52"/>
+      <c r="F367" s="52"/>
+      <c r="G367" s="23">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="H367" s="52"/>
+      <c r="I367" s="52"/>
+      <c r="J367" s="53"/>
+    </row>
+    <row r="368" spans="1:11" s="91" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A368" s="83">
+        <v>6826</v>
+      </c>
+      <c r="B368" s="84" t="s">
         <v>363</v>
-      </c>
-      <c r="C366" s="52"/>
-      <c r="D366" s="52"/>
-      <c r="E366" s="52"/>
-      <c r="F366" s="52"/>
-      <c r="G366" s="23">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="H366" s="52"/>
-      <c r="I366" s="52"/>
-      <c r="J366" s="53"/>
-    </row>
-    <row r="367" spans="1:11" s="91" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A367" s="83">
-        <v>6826</v>
-      </c>
-      <c r="B367" s="84" t="s">
-        <v>364</v>
-      </c>
-      <c r="C367" s="85" t="s">
-        <v>23</v>
-      </c>
-      <c r="D367" s="86">
-        <v>1001100616826</v>
-      </c>
-      <c r="E367" s="87"/>
-      <c r="F367" s="88">
-        <v>0.15</v>
-      </c>
-      <c r="G367" s="88">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="H367" s="89">
-        <v>2.4</v>
-      </c>
-      <c r="I367" s="89">
-        <v>60</v>
-      </c>
-      <c r="J367" s="89"/>
-      <c r="K367" s="90"/>
-    </row>
-    <row r="368" spans="1:11" s="91" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A368" s="83">
-        <v>6828</v>
-      </c>
-      <c r="B368" s="84" t="s">
-        <v>365</v>
       </c>
       <c r="C368" s="85" t="s">
         <v>23</v>
       </c>
       <c r="D368" s="86">
-        <v>1001100626828</v>
+        <v>1001100616826</v>
       </c>
       <c r="E368" s="87"/>
       <c r="F368" s="88">
         <v>0.15</v>
       </c>
       <c r="G368" s="88">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H368" s="89">
@@ -13350,60 +13350,60 @@
       <c r="J368" s="89"/>
       <c r="K368" s="90"/>
     </row>
-    <row r="369" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A369" s="66" t="str">
-        <f t="shared" ref="A369:A400" si="31">RIGHT(D369,4)</f>
-        <v>3590</v>
-      </c>
-      <c r="B369" s="93" t="s">
-        <v>366</v>
-      </c>
-      <c r="C369" s="30" t="s">
+    <row r="369" spans="1:11" s="91" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A369" s="83">
+        <v>6828</v>
+      </c>
+      <c r="B369" s="84" t="s">
+        <v>364</v>
+      </c>
+      <c r="C369" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="D369" s="27">
-        <v>1001122283590</v>
-      </c>
-      <c r="E369" s="24"/>
-      <c r="F369" s="23">
-        <v>0.33800000000000002</v>
-      </c>
-      <c r="G369" s="23">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="H369" s="14">
-        <v>4.05</v>
-      </c>
-      <c r="I369" s="14">
-        <v>3</v>
-      </c>
-      <c r="J369" s="33"/>
+      <c r="D369" s="86">
+        <v>1001100626828</v>
+      </c>
+      <c r="E369" s="87"/>
+      <c r="F369" s="88">
+        <v>0.15</v>
+      </c>
+      <c r="G369" s="88">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="H369" s="89">
+        <v>2.4</v>
+      </c>
+      <c r="I369" s="89">
+        <v>60</v>
+      </c>
+      <c r="J369" s="89"/>
+      <c r="K369" s="90"/>
     </row>
     <row r="370" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="66" t="str">
-        <f t="shared" si="31"/>
-        <v>5024</v>
+        <f t="shared" ref="A370:A401" si="32">RIGHT(D370,4)</f>
+        <v>3590</v>
       </c>
       <c r="B370" s="93" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C370" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D370" s="27">
-        <v>1001123675024</v>
+        <v>1001122283590</v>
       </c>
       <c r="E370" s="24"/>
       <c r="F370" s="23">
-        <v>0.32500000000000001</v>
+        <v>0.33800000000000002</v>
       </c>
       <c r="G370" s="23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H370" s="14">
-        <v>5.85</v>
+        <v>4.05</v>
       </c>
       <c r="I370" s="14">
         <v>3</v>
@@ -13412,165 +13412,165 @@
     </row>
     <row r="371" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="66" t="str">
-        <f t="shared" si="31"/>
-        <v>5716</v>
+        <f t="shared" si="32"/>
+        <v>5024</v>
       </c>
       <c r="B371" s="93" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C371" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D371" s="27">
-        <v>1001102965716</v>
+        <v>1001123675024</v>
       </c>
       <c r="E371" s="24"/>
       <c r="F371" s="23">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="G371" s="23">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="H371" s="14">
+        <v>5.85</v>
+      </c>
+      <c r="I371" s="14">
+        <v>3</v>
+      </c>
+      <c r="J371" s="33"/>
+    </row>
+    <row r="372" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A372" s="66" t="str">
+        <f t="shared" si="32"/>
+        <v>5716</v>
+      </c>
+      <c r="B372" s="93" t="s">
+        <v>367</v>
+      </c>
+      <c r="C372" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D372" s="27">
+        <v>1001102965716</v>
+      </c>
+      <c r="E372" s="24"/>
+      <c r="F372" s="23">
         <v>0.5</v>
       </c>
-      <c r="G371" s="23">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="H371" s="14">
+      <c r="G372" s="23">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="H372" s="14">
         <v>4</v>
       </c>
-      <c r="I371" s="14">
+      <c r="I372" s="14">
         <v>40</v>
       </c>
-      <c r="J371" s="33"/>
-    </row>
-    <row r="372" spans="1:11" s="91" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A372" s="83" t="str">
+      <c r="J372" s="33"/>
+    </row>
+    <row r="373" spans="1:11" s="91" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A373" s="83" t="str">
+        <f t="shared" si="32"/>
+        <v>6827</v>
+      </c>
+      <c r="B373" s="84" t="s">
+        <v>368</v>
+      </c>
+      <c r="C373" s="85" t="s">
+        <v>23</v>
+      </c>
+      <c r="D373" s="86">
+        <v>1001100606827</v>
+      </c>
+      <c r="E373" s="87"/>
+      <c r="F373" s="88">
+        <v>0.15</v>
+      </c>
+      <c r="G373" s="88">
         <f t="shared" si="31"/>
-        <v>6827</v>
-      </c>
-      <c r="B372" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="H373" s="89">
+        <v>2.4</v>
+      </c>
+      <c r="I373" s="89">
+        <v>60</v>
+      </c>
+      <c r="J373" s="89"/>
+      <c r="K373" s="90"/>
+    </row>
+    <row r="374" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A374" s="66" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="B374" s="52" t="s">
         <v>369</v>
       </c>
-      <c r="C372" s="85" t="s">
-        <v>23</v>
-      </c>
-      <c r="D372" s="86">
-        <v>1001100606827</v>
-      </c>
-      <c r="E372" s="87"/>
-      <c r="F372" s="88">
-        <v>0.15</v>
-      </c>
-      <c r="G372" s="88">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="H372" s="89">
-        <v>2.4</v>
-      </c>
-      <c r="I372" s="89">
-        <v>60</v>
-      </c>
-      <c r="J372" s="89"/>
-      <c r="K372" s="90"/>
-    </row>
-    <row r="373" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A373" s="66" t="str">
+      <c r="C374" s="52"/>
+      <c r="D374" s="52"/>
+      <c r="E374" s="52"/>
+      <c r="F374" s="52"/>
+      <c r="G374" s="23">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="B373" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="H374" s="52"/>
+      <c r="I374" s="52"/>
+      <c r="J374" s="53"/>
+    </row>
+    <row r="375" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A375" s="66" t="str">
+        <f t="shared" si="32"/>
+        <v>6314</v>
+      </c>
+      <c r="B375" s="42" t="s">
         <v>370</v>
-      </c>
-      <c r="C373" s="52"/>
-      <c r="D373" s="52"/>
-      <c r="E373" s="52"/>
-      <c r="F373" s="52"/>
-      <c r="G373" s="23">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="H373" s="52"/>
-      <c r="I373" s="52"/>
-      <c r="J373" s="53"/>
-    </row>
-    <row r="374" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A374" s="66" t="str">
-        <f t="shared" si="31"/>
-        <v>6314</v>
-      </c>
-      <c r="B374" s="42" t="s">
-        <v>371</v>
-      </c>
-      <c r="C374" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D374" s="27">
-        <v>1002112606314</v>
-      </c>
-      <c r="E374" s="24"/>
-      <c r="F374" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="G374" s="23">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="H374" s="14">
-        <v>8</v>
-      </c>
-      <c r="I374" s="14">
-        <v>180</v>
-      </c>
-      <c r="J374" s="33"/>
-    </row>
-    <row r="375" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A375" s="66" t="str">
-        <f t="shared" si="31"/>
-        <v>6155</v>
-      </c>
-      <c r="B375" s="42" t="s">
-        <v>372</v>
       </c>
       <c r="C375" s="30" t="s">
         <v>29</v>
       </c>
       <c r="D375" s="27">
-        <v>1002115036155</v>
+        <v>1002112606314</v>
       </c>
       <c r="E375" s="24"/>
       <c r="F375" s="23">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="G375" s="23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H375" s="14">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="I375" s="14">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="J375" s="33"/>
     </row>
     <row r="376" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="66" t="str">
-        <f t="shared" si="31"/>
-        <v>6157</v>
+        <f t="shared" si="32"/>
+        <v>6155</v>
       </c>
       <c r="B376" s="42" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C376" s="30" t="s">
         <v>29</v>
       </c>
       <c r="D376" s="27">
-        <v>1002115056157</v>
+        <v>1002115036155</v>
       </c>
       <c r="E376" s="24"/>
       <c r="F376" s="23">
         <v>0.45</v>
       </c>
       <c r="G376" s="23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H376" s="14">
@@ -13583,88 +13583,88 @@
     </row>
     <row r="377" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="66" t="str">
-        <f t="shared" si="31"/>
-        <v>6313</v>
+        <f t="shared" si="32"/>
+        <v>6157</v>
       </c>
       <c r="B377" s="42" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C377" s="30" t="s">
         <v>29</v>
       </c>
       <c r="D377" s="27">
-        <v>1002112606313</v>
+        <v>1002115056157</v>
       </c>
       <c r="E377" s="24"/>
       <c r="F377" s="23">
-        <v>0.9</v>
+        <v>0.45</v>
       </c>
       <c r="G377" s="23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H377" s="14">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="I377" s="14">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="J377" s="33"/>
     </row>
     <row r="378" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="66" t="str">
-        <f t="shared" si="31"/>
-        <v>5648</v>
+        <f t="shared" si="32"/>
+        <v>6313</v>
       </c>
       <c r="B378" s="42" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C378" s="30" t="s">
         <v>29</v>
       </c>
       <c r="D378" s="27">
-        <v>1002112415648</v>
+        <v>1002112606313</v>
       </c>
       <c r="E378" s="24"/>
       <c r="F378" s="23">
-        <v>0.42</v>
+        <v>0.9</v>
       </c>
       <c r="G378" s="23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H378" s="14">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="I378" s="14">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="J378" s="33"/>
     </row>
     <row r="379" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="66" t="str">
-        <f t="shared" si="31"/>
-        <v>6156</v>
+        <f t="shared" si="32"/>
+        <v>5648</v>
       </c>
       <c r="B379" s="42" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C379" s="30" t="s">
         <v>29</v>
       </c>
       <c r="D379" s="27">
-        <v>1002115046156</v>
+        <v>1002112415648</v>
       </c>
       <c r="E379" s="24"/>
       <c r="F379" s="23">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="G379" s="23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H379" s="14">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="I379" s="14">
         <v>120</v>
@@ -13673,58 +13673,58 @@
     </row>
     <row r="380" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="66" t="str">
-        <f t="shared" si="31"/>
-        <v>6312</v>
+        <f t="shared" si="32"/>
+        <v>6156</v>
       </c>
       <c r="B380" s="42" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C380" s="30" t="s">
         <v>29</v>
       </c>
       <c r="D380" s="27">
-        <v>1002112696312</v>
+        <v>1002115046156</v>
       </c>
       <c r="E380" s="24"/>
       <c r="F380" s="23">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="G380" s="23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H380" s="14">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="I380" s="14">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="J380" s="33"/>
     </row>
     <row r="381" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="66" t="str">
-        <f t="shared" si="31"/>
-        <v>6440</v>
+        <f t="shared" si="32"/>
+        <v>6312</v>
       </c>
       <c r="B381" s="42" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C381" s="30" t="s">
         <v>29</v>
       </c>
       <c r="D381" s="27">
-        <v>1002112606440</v>
+        <v>1002112696312</v>
       </c>
       <c r="E381" s="24"/>
       <c r="F381" s="23">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G381" s="23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H381" s="14">
-        <v>6.4</v>
+        <v>8</v>
       </c>
       <c r="I381" s="14">
         <v>180</v>
@@ -13733,24 +13733,24 @@
     </row>
     <row r="382" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="66" t="str">
-        <f t="shared" si="31"/>
-        <v>6613</v>
+        <f t="shared" si="32"/>
+        <v>6440</v>
       </c>
       <c r="B382" s="42" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C382" s="30" t="s">
         <v>29</v>
       </c>
       <c r="D382" s="27">
-        <v>1002112606613</v>
+        <v>1002112606440</v>
       </c>
       <c r="E382" s="24"/>
       <c r="F382" s="23">
         <v>0.4</v>
       </c>
       <c r="G382" s="23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H382" s="14">
@@ -13761,156 +13761,156 @@
       </c>
       <c r="J382" s="33"/>
     </row>
-    <row r="383" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="66" t="str">
-        <f t="shared" si="31"/>
-        <v>6311</v>
+        <f t="shared" si="32"/>
+        <v>6613</v>
       </c>
       <c r="B383" s="42" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C383" s="30" t="s">
         <v>29</v>
       </c>
       <c r="D383" s="27">
-        <v>1002112416311</v>
+        <v>1002112606613</v>
       </c>
       <c r="E383" s="24"/>
       <c r="F383" s="23">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G383" s="23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H383" s="14">
-        <v>8</v>
+        <v>6.4</v>
       </c>
       <c r="I383" s="14">
         <v>180</v>
       </c>
       <c r="J383" s="33"/>
     </row>
-    <row r="384" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A384" s="66" t="str">
+        <f t="shared" si="32"/>
+        <v>6311</v>
+      </c>
+      <c r="B384" s="42" t="s">
+        <v>379</v>
+      </c>
+      <c r="C384" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D384" s="27">
+        <v>1002112416311</v>
+      </c>
+      <c r="E384" s="24"/>
+      <c r="F384" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="G384" s="23">
         <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="B384" s="52" t="s">
-        <v>381</v>
-      </c>
-      <c r="C384" s="52"/>
-      <c r="D384" s="52"/>
-      <c r="E384" s="52"/>
-      <c r="F384" s="52"/>
-      <c r="G384" s="23">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="H384" s="52"/>
-      <c r="I384" s="52"/>
-      <c r="J384" s="53"/>
+        <v>0</v>
+      </c>
+      <c r="H384" s="14">
+        <v>8</v>
+      </c>
+      <c r="I384" s="14">
+        <v>180</v>
+      </c>
+      <c r="J384" s="33"/>
     </row>
     <row r="385" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A385" s="66" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="B385" s="52" t="s">
+        <v>380</v>
+      </c>
+      <c r="C385" s="52"/>
+      <c r="D385" s="52"/>
+      <c r="E385" s="52"/>
+      <c r="F385" s="52"/>
+      <c r="G385" s="23">
         <f t="shared" si="31"/>
-        <v>4945</v>
-      </c>
-      <c r="B385" s="42" t="s">
-        <v>382</v>
-      </c>
-      <c r="C385" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D385" s="27">
-        <v>1002151784945</v>
-      </c>
-      <c r="E385" s="24"/>
-      <c r="F385" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="G385" s="23">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="H385" s="14">
-        <v>8</v>
-      </c>
-      <c r="I385" s="14">
-        <v>120</v>
-      </c>
-      <c r="J385" s="33"/>
+        <v>0</v>
+      </c>
+      <c r="H385" s="52"/>
+      <c r="I385" s="52"/>
+      <c r="J385" s="53"/>
     </row>
     <row r="386" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A386" s="66" t="str">
+        <f t="shared" si="32"/>
+        <v>4945</v>
+      </c>
+      <c r="B386" s="42" t="s">
+        <v>381</v>
+      </c>
+      <c r="C386" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D386" s="27">
+        <v>1002151784945</v>
+      </c>
+      <c r="E386" s="24"/>
+      <c r="F386" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="G386" s="23">
         <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="H386" s="14">
+        <v>8</v>
+      </c>
+      <c r="I386" s="14">
+        <v>120</v>
+      </c>
+      <c r="J386" s="33"/>
+    </row>
+    <row r="387" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A387" s="66" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="B386" s="52" t="s">
+      <c r="B387" s="52" t="s">
+        <v>382</v>
+      </c>
+      <c r="C387" s="52"/>
+      <c r="D387" s="52"/>
+      <c r="E387" s="52"/>
+      <c r="F387" s="52"/>
+      <c r="G387" s="23">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="H387" s="52"/>
+      <c r="I387" s="52"/>
+      <c r="J387" s="53"/>
+    </row>
+    <row r="388" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A388" s="66" t="str">
+        <f t="shared" si="32"/>
+        <v>1762</v>
+      </c>
+      <c r="B388" s="42" t="s">
         <v>383</v>
       </c>
-      <c r="C386" s="52"/>
-      <c r="D386" s="52"/>
-      <c r="E386" s="52"/>
-      <c r="F386" s="52"/>
-      <c r="G386" s="23">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="H386" s="52"/>
-      <c r="I386" s="52"/>
-      <c r="J386" s="53"/>
-    </row>
-    <row r="387" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A387" s="66" t="str">
-        <f t="shared" si="31"/>
-        <v>1762</v>
-      </c>
-      <c r="B387" s="42" t="s">
-        <v>384</v>
-      </c>
-      <c r="C387" s="30" t="s">
+      <c r="C388" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D387" s="27">
+      <c r="D388" s="27">
         <v>1002131151762</v>
-      </c>
-      <c r="E387" s="24"/>
-      <c r="F387" s="23">
-        <v>0.42</v>
-      </c>
-      <c r="G387" s="23">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="H387" s="14">
-        <v>4.2</v>
-      </c>
-      <c r="I387" s="14">
-        <v>120</v>
-      </c>
-      <c r="J387" s="33"/>
-    </row>
-    <row r="388" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A388" s="66" t="str">
-        <f t="shared" si="31"/>
-        <v>1764</v>
-      </c>
-      <c r="B388" s="42" t="s">
-        <v>385</v>
-      </c>
-      <c r="C388" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D388" s="27">
-        <v>1002131181764</v>
       </c>
       <c r="E388" s="24"/>
       <c r="F388" s="23">
         <v>0.42</v>
       </c>
       <c r="G388" s="23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H388" s="14">
@@ -13923,28 +13923,28 @@
     </row>
     <row r="389" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="66" t="str">
-        <f t="shared" si="31"/>
-        <v>4744</v>
+        <f t="shared" si="32"/>
+        <v>1764</v>
       </c>
       <c r="B389" s="42" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C389" s="30" t="s">
         <v>29</v>
       </c>
       <c r="D389" s="27">
-        <v>1002131144744</v>
+        <v>1002131181764</v>
       </c>
       <c r="E389" s="24"/>
       <c r="F389" s="23">
         <v>0.42</v>
       </c>
       <c r="G389" s="23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H389" s="14">
-        <v>5.04</v>
+        <v>4.2</v>
       </c>
       <c r="I389" s="14">
         <v>120</v>
@@ -13953,24 +13953,24 @@
     </row>
     <row r="390" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="66" t="str">
-        <f t="shared" si="31"/>
-        <v>4741</v>
+        <f t="shared" si="32"/>
+        <v>4744</v>
       </c>
       <c r="B390" s="42" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C390" s="30" t="s">
         <v>29</v>
       </c>
       <c r="D390" s="27">
-        <v>1002131154741</v>
+        <v>1002131144744</v>
       </c>
       <c r="E390" s="24"/>
       <c r="F390" s="23">
         <v>0.42</v>
       </c>
       <c r="G390" s="23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H390" s="14">
@@ -13983,28 +13983,28 @@
     </row>
     <row r="391" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="66" t="str">
-        <f t="shared" si="31"/>
-        <v>6168</v>
+        <f t="shared" si="32"/>
+        <v>4741</v>
       </c>
       <c r="B391" s="42" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C391" s="30" t="s">
         <v>29</v>
       </c>
       <c r="D391" s="27">
-        <v>1002131156168</v>
+        <v>1002131154741</v>
       </c>
       <c r="E391" s="24"/>
       <c r="F391" s="23">
-        <v>0.35</v>
+        <v>0.42</v>
       </c>
       <c r="G391" s="23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H391" s="14">
-        <v>4.2</v>
+        <v>5.04</v>
       </c>
       <c r="I391" s="14">
         <v>120</v>
@@ -14013,24 +14013,24 @@
     </row>
     <row r="392" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="66" t="str">
-        <f t="shared" si="31"/>
-        <v>1857</v>
+        <f t="shared" si="32"/>
+        <v>6168</v>
       </c>
       <c r="B392" s="42" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C392" s="30" t="s">
         <v>29</v>
       </c>
       <c r="D392" s="27">
-        <v>1002131161857</v>
+        <v>1002131156168</v>
       </c>
       <c r="E392" s="24"/>
       <c r="F392" s="23">
-        <v>0.42</v>
+        <v>0.35</v>
       </c>
       <c r="G392" s="23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H392" s="14">
@@ -14042,25 +14042,25 @@
       <c r="J392" s="33"/>
     </row>
     <row r="393" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A393" s="67" t="str">
-        <f t="shared" si="31"/>
-        <v>6663</v>
-      </c>
-      <c r="B393" s="65" t="s">
-        <v>390</v>
-      </c>
-      <c r="C393" s="60" t="s">
+      <c r="A393" s="66" t="str">
+        <f t="shared" si="32"/>
+        <v>1857</v>
+      </c>
+      <c r="B393" s="42" t="s">
+        <v>388</v>
+      </c>
+      <c r="C393" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D393" s="61">
-        <v>1002133376663</v>
+      <c r="D393" s="27">
+        <v>1002131161857</v>
       </c>
       <c r="E393" s="24"/>
       <c r="F393" s="23">
         <v>0.42</v>
       </c>
       <c r="G393" s="23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H393" s="14">
@@ -14072,29 +14072,29 @@
       <c r="J393" s="33"/>
     </row>
     <row r="394" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A394" s="66" t="str">
-        <f t="shared" si="31"/>
+      <c r="A394" s="67" t="str">
+        <f t="shared" si="32"/>
         <v>6663</v>
       </c>
-      <c r="B394" s="42" t="s">
-        <v>391</v>
-      </c>
-      <c r="C394" s="30" t="s">
+      <c r="B394" s="65" t="s">
+        <v>389</v>
+      </c>
+      <c r="C394" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="D394" s="27">
+      <c r="D394" s="61">
         <v>1002133376663</v>
       </c>
       <c r="E394" s="24"/>
       <c r="F394" s="23">
-        <v>0.3</v>
+        <v>0.42</v>
       </c>
       <c r="G394" s="23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H394" s="14">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="I394" s="14">
         <v>120</v>
@@ -14103,28 +14103,28 @@
     </row>
     <row r="395" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="66" t="str">
-        <f t="shared" si="31"/>
-        <v>5579</v>
+        <f t="shared" si="32"/>
+        <v>6663</v>
       </c>
       <c r="B395" s="42" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C395" s="30" t="s">
         <v>29</v>
       </c>
       <c r="D395" s="27">
-        <v>1002134275579</v>
+        <v>1002133376663</v>
       </c>
       <c r="E395" s="24"/>
       <c r="F395" s="23">
-        <v>0.42</v>
+        <v>0.3</v>
       </c>
       <c r="G395" s="23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H395" s="14">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="I395" s="14">
         <v>120</v>
@@ -14133,24 +14133,24 @@
     </row>
     <row r="396" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="66" t="str">
-        <f t="shared" si="31"/>
-        <v>5897</v>
+        <f t="shared" si="32"/>
+        <v>5579</v>
       </c>
       <c r="B396" s="42" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C396" s="30" t="s">
         <v>29</v>
       </c>
       <c r="D396" s="27">
-        <v>1002134615897</v>
+        <v>1002134275579</v>
       </c>
       <c r="E396" s="24"/>
       <c r="F396" s="23">
         <v>0.42</v>
       </c>
       <c r="G396" s="23">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H396" s="14">
@@ -14163,24 +14163,24 @@
     </row>
     <row r="397" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="66" t="str">
-        <f t="shared" si="31"/>
-        <v>5898</v>
+        <f t="shared" si="32"/>
+        <v>5897</v>
       </c>
       <c r="B397" s="42" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C397" s="30" t="s">
         <v>29</v>
       </c>
       <c r="D397" s="27">
-        <v>1002131125898</v>
+        <v>1002134615897</v>
       </c>
       <c r="E397" s="24"/>
       <c r="F397" s="23">
         <v>0.42</v>
       </c>
       <c r="G397" s="23">
-        <f t="shared" ref="G397:G403" si="32">E397*F397</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H397" s="14">
@@ -14193,28 +14193,28 @@
     </row>
     <row r="398" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="66" t="str">
-        <f t="shared" si="31"/>
-        <v>4731</v>
+        <f t="shared" si="32"/>
+        <v>5898</v>
       </c>
       <c r="B398" s="42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C398" s="30" t="s">
         <v>29</v>
       </c>
       <c r="D398" s="27">
-        <v>1002131154731</v>
+        <v>1002131125898</v>
       </c>
       <c r="E398" s="24"/>
       <c r="F398" s="23">
-        <v>5</v>
+        <v>0.42</v>
       </c>
       <c r="G398" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="G398:G404" si="33">E398*F398</f>
         <v>0</v>
       </c>
       <c r="H398" s="14">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="I398" s="14">
         <v>120</v>
@@ -14223,28 +14223,28 @@
     </row>
     <row r="399" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="66" t="str">
-        <f t="shared" si="31"/>
-        <v>5754</v>
+        <f t="shared" si="32"/>
+        <v>4731</v>
       </c>
       <c r="B399" s="42" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C399" s="30" t="s">
         <v>29</v>
       </c>
       <c r="D399" s="27">
-        <v>1002131155754</v>
+        <v>1002131154731</v>
       </c>
       <c r="E399" s="24"/>
       <c r="F399" s="23">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G399" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="H399" s="14">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="I399" s="14">
         <v>120</v>
@@ -14253,24 +14253,24 @@
     </row>
     <row r="400" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="66" t="str">
-        <f t="shared" si="31"/>
-        <v>5755</v>
+        <f t="shared" si="32"/>
+        <v>5754</v>
       </c>
       <c r="B400" s="42" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C400" s="30" t="s">
         <v>29</v>
       </c>
       <c r="D400" s="27">
-        <v>1002131185755</v>
+        <v>1002131155754</v>
       </c>
       <c r="E400" s="24"/>
       <c r="F400" s="23">
         <v>4.5</v>
       </c>
       <c r="G400" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="H400" s="14">
@@ -14283,54 +14283,54 @@
     </row>
     <row r="401" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="66" t="str">
-        <f t="shared" ref="A401:A432" si="33">RIGHT(D401,4)</f>
-        <v>6150</v>
+        <f t="shared" si="32"/>
+        <v>5755</v>
       </c>
       <c r="B401" s="42" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C401" s="30" t="s">
         <v>29</v>
       </c>
       <c r="D401" s="27">
-        <v>1002135296150</v>
+        <v>1002131185755</v>
       </c>
       <c r="E401" s="24"/>
       <c r="F401" s="23">
-        <v>0.3</v>
+        <v>4.5</v>
       </c>
       <c r="G401" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="H401" s="14">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="I401" s="14">
         <v>120</v>
       </c>
       <c r="J401" s="33"/>
     </row>
-    <row r="402" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="66" t="str">
-        <f t="shared" si="33"/>
-        <v>6151</v>
+        <f t="shared" ref="A402:A433" si="34">RIGHT(D402,4)</f>
+        <v>6150</v>
       </c>
       <c r="B402" s="42" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C402" s="30" t="s">
         <v>29</v>
       </c>
       <c r="D402" s="27">
-        <v>1002135286151</v>
+        <v>1002135296150</v>
       </c>
       <c r="E402" s="24"/>
       <c r="F402" s="23">
         <v>0.3</v>
       </c>
       <c r="G402" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="H402" s="14">
@@ -14341,170 +14341,170 @@
       </c>
       <c r="J402" s="33"/>
     </row>
-    <row r="403" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A403" s="66" t="str">
+        <f t="shared" si="34"/>
+        <v>6151</v>
+      </c>
+      <c r="B403" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="C403" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D403" s="27">
+        <v>1002135286151</v>
+      </c>
+      <c r="E403" s="24"/>
+      <c r="F403" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="G403" s="23">
         <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="H403" s="14">
+        <v>3.6</v>
+      </c>
+      <c r="I403" s="14">
+        <v>120</v>
+      </c>
+      <c r="J403" s="33"/>
+    </row>
+    <row r="404" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A404" s="66" t="str">
+        <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="B403" s="52" t="s">
+      <c r="B404" s="52" t="s">
+        <v>399</v>
+      </c>
+      <c r="C404" s="52"/>
+      <c r="D404" s="52"/>
+      <c r="E404" s="52"/>
+      <c r="F404" s="52"/>
+      <c r="G404" s="23">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="H404" s="52"/>
+      <c r="I404" s="52"/>
+      <c r="J404" s="53"/>
+    </row>
+    <row r="405" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A405" s="66" t="str">
+        <f t="shared" si="34"/>
+        <v>6004</v>
+      </c>
+      <c r="B405" s="42" t="s">
         <v>400</v>
       </c>
-      <c r="C403" s="52"/>
-      <c r="D403" s="52"/>
-      <c r="E403" s="52"/>
-      <c r="F403" s="52"/>
-      <c r="G403" s="23">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="H403" s="52"/>
-      <c r="I403" s="52"/>
-      <c r="J403" s="53"/>
-    </row>
-    <row r="404" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A404" s="66" t="str">
-        <f t="shared" si="33"/>
-        <v>6004</v>
-      </c>
-      <c r="B404" s="42" t="s">
-        <v>401</v>
-      </c>
-      <c r="C404" s="30" t="s">
+      <c r="C405" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D404" s="27">
+      <c r="D405" s="27">
         <v>1002162156004</v>
-      </c>
-      <c r="E404" s="24"/>
-      <c r="F404" s="23">
-        <v>1</v>
-      </c>
-      <c r="G404" s="23">
-        <f t="shared" ref="G404:G435" si="34">E404</f>
-        <v>0</v>
-      </c>
-      <c r="H404" s="14">
-        <v>8</v>
-      </c>
-      <c r="I404" s="14">
-        <v>120</v>
-      </c>
-      <c r="J404" s="33"/>
-    </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A405" s="66" t="str">
-        <f t="shared" si="33"/>
-        <v>5417</v>
-      </c>
-      <c r="B405" s="42" t="s">
-        <v>402</v>
-      </c>
-      <c r="C405" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D405" s="27">
-        <v>1002162215417</v>
       </c>
       <c r="E405" s="24"/>
       <c r="F405" s="23">
-        <v>2.0339999999999998</v>
+        <v>1</v>
       </c>
       <c r="G405" s="23">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="G405:G436" si="35">E405</f>
         <v>0</v>
       </c>
       <c r="H405" s="14">
-        <v>6.1</v>
+        <v>8</v>
       </c>
       <c r="I405" s="14">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="J405" s="33"/>
     </row>
     <row r="406" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A406" s="66" t="str">
-        <f t="shared" si="33"/>
-        <v>6019</v>
+        <f t="shared" si="34"/>
+        <v>5417</v>
       </c>
       <c r="B406" s="42" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C406" s="30" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D406" s="27">
-        <v>1002162166019</v>
+        <v>1002162215417</v>
       </c>
       <c r="E406" s="24"/>
       <c r="F406" s="23">
-        <v>1</v>
+        <v>2.0339999999999998</v>
       </c>
       <c r="G406" s="23">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H406" s="14">
-        <v>12</v>
+        <v>6.1</v>
       </c>
       <c r="I406" s="14">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="J406" s="33"/>
     </row>
     <row r="407" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A407" s="66" t="str">
-        <f t="shared" si="33"/>
-        <v>6318</v>
+        <f t="shared" si="34"/>
+        <v>6019</v>
       </c>
       <c r="B407" s="42" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C407" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D407" s="27">
-        <v>1003171436318</v>
+        <v>1002162166019</v>
       </c>
       <c r="E407" s="24"/>
       <c r="F407" s="23">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="G407" s="23">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H407" s="14">
-        <v>1.6</v>
+        <v>12</v>
       </c>
       <c r="I407" s="14">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="J407" s="33"/>
     </row>
     <row r="408" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A408" s="66" t="str">
-        <f t="shared" si="33"/>
-        <v>5394</v>
+        <f t="shared" si="34"/>
+        <v>6318</v>
       </c>
       <c r="B408" s="42" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C408" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D408" s="27">
-        <v>1003171575394</v>
+        <v>1003171436318</v>
       </c>
       <c r="E408" s="24"/>
       <c r="F408" s="23">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G408" s="23">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H408" s="14">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="I408" s="14">
         <v>12</v>
@@ -14513,28 +14513,28 @@
     </row>
     <row r="409" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A409" s="66" t="str">
-        <f t="shared" si="33"/>
-        <v>6174</v>
+        <f t="shared" si="34"/>
+        <v>5394</v>
       </c>
       <c r="B409" s="42" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C409" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D409" s="27">
-        <v>1003171576174</v>
+        <v>1003171575394</v>
       </c>
       <c r="E409" s="24"/>
       <c r="F409" s="23">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G409" s="23">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H409" s="14">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="I409" s="14">
         <v>12</v>
@@ -14543,58 +14543,58 @@
     </row>
     <row r="410" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A410" s="66" t="str">
-        <f t="shared" si="33"/>
-        <v>5397</v>
+        <f t="shared" si="34"/>
+        <v>6174</v>
       </c>
       <c r="B410" s="42" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C410" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D410" s="27">
-        <v>1003171585397</v>
+        <v>1003171576174</v>
       </c>
       <c r="E410" s="24"/>
       <c r="F410" s="23">
         <v>0.4</v>
       </c>
       <c r="G410" s="23">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H410" s="14">
         <v>1.6</v>
       </c>
       <c r="I410" s="14">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J410" s="33"/>
     </row>
     <row r="411" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A411" s="66" t="str">
-        <f t="shared" si="33"/>
-        <v>5398</v>
+        <f t="shared" si="34"/>
+        <v>5397</v>
       </c>
       <c r="B411" s="42" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C411" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D411" s="27">
-        <v>1003171585398</v>
+        <v>1003171585397</v>
       </c>
       <c r="E411" s="24"/>
       <c r="F411" s="23">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G411" s="23">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H411" s="14">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="I411" s="14">
         <v>8</v>
@@ -14603,54 +14603,54 @@
     </row>
     <row r="412" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A412" s="66" t="str">
-        <f t="shared" si="33"/>
-        <v>5589</v>
+        <f t="shared" si="34"/>
+        <v>5398</v>
       </c>
       <c r="B412" s="42" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C412" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D412" s="27">
-        <v>1003173575589</v>
+        <v>1003171585398</v>
       </c>
       <c r="E412" s="24"/>
       <c r="F412" s="23">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G412" s="23">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H412" s="14">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="I412" s="14">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J412" s="33"/>
     </row>
     <row r="413" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A413" s="66" t="str">
-        <f t="shared" si="33"/>
-        <v>5722</v>
+        <f t="shared" si="34"/>
+        <v>5589</v>
       </c>
       <c r="B413" s="42" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C413" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D413" s="27">
-        <v>1003171735722</v>
+        <v>1003173575589</v>
       </c>
       <c r="E413" s="24"/>
       <c r="F413" s="23">
         <v>0.4</v>
       </c>
       <c r="G413" s="23">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H413" s="14">
@@ -14663,28 +14663,28 @@
     </row>
     <row r="414" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A414" s="66" t="str">
-        <f t="shared" si="33"/>
-        <v>5428</v>
+        <f t="shared" si="34"/>
+        <v>5722</v>
       </c>
       <c r="B414" s="42" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C414" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D414" s="27">
-        <v>1003171735428</v>
+        <v>1003171735722</v>
       </c>
       <c r="E414" s="24"/>
       <c r="F414" s="23">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G414" s="23">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H414" s="14">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="I414" s="14">
         <v>12</v>
@@ -14693,28 +14693,28 @@
     </row>
     <row r="415" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A415" s="66" t="str">
-        <f t="shared" si="33"/>
-        <v>5435</v>
+        <f t="shared" si="34"/>
+        <v>5428</v>
       </c>
       <c r="B415" s="42" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C415" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D415" s="27">
-        <v>1003171755435</v>
+        <v>1003171735428</v>
       </c>
       <c r="E415" s="24"/>
       <c r="F415" s="23">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G415" s="23">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H415" s="14">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="I415" s="14">
         <v>12</v>
@@ -14723,28 +14723,28 @@
     </row>
     <row r="416" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A416" s="66" t="str">
-        <f t="shared" si="33"/>
-        <v>5856</v>
+        <f t="shared" si="34"/>
+        <v>5435</v>
       </c>
       <c r="B416" s="42" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C416" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D416" s="27">
-        <v>1003174575856</v>
+        <v>1003171755435</v>
       </c>
       <c r="E416" s="24"/>
       <c r="F416" s="23">
-        <v>0.28999999999999998</v>
+        <v>0.4</v>
       </c>
       <c r="G416" s="23">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H416" s="14">
-        <v>1.1599999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="I416" s="14">
         <v>12</v>
@@ -14753,54 +14753,54 @@
     </row>
     <row r="417" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A417" s="66" t="str">
-        <f t="shared" si="33"/>
-        <v>4869</v>
+        <f t="shared" si="34"/>
+        <v>5856</v>
       </c>
       <c r="B417" s="42" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C417" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D417" s="27">
-        <v>1003171674869</v>
+        <v>1003174575856</v>
       </c>
       <c r="E417" s="24"/>
       <c r="F417" s="23">
-        <v>0.5</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G417" s="23">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H417" s="14">
-        <v>3</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="I417" s="14">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J417" s="33"/>
     </row>
     <row r="418" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A418" s="66" t="str">
-        <f t="shared" si="33"/>
-        <v>4873</v>
+        <f t="shared" si="34"/>
+        <v>4869</v>
       </c>
       <c r="B418" s="42" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C418" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D418" s="27">
-        <v>1003171684873</v>
+        <v>1003171674869</v>
       </c>
       <c r="E418" s="24"/>
       <c r="F418" s="23">
         <v>0.5</v>
       </c>
       <c r="G418" s="23">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H418" s="14">
@@ -14813,58 +14813,58 @@
     </row>
     <row r="419" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A419" s="66" t="str">
-        <f t="shared" si="33"/>
-        <v>4725</v>
+        <f t="shared" si="34"/>
+        <v>4873</v>
       </c>
       <c r="B419" s="42" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C419" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D419" s="27">
-        <v>1003171504725</v>
+        <v>1003171684873</v>
       </c>
       <c r="E419" s="24"/>
       <c r="F419" s="23">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G419" s="23">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H419" s="14">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="I419" s="14">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J419" s="33"/>
     </row>
     <row r="420" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A420" s="66" t="str">
-        <f t="shared" si="33"/>
-        <v>5855</v>
+        <f t="shared" si="34"/>
+        <v>4725</v>
       </c>
       <c r="B420" s="42" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C420" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D420" s="27">
-        <v>1003174565855</v>
+        <v>1003171504725</v>
       </c>
       <c r="E420" s="24"/>
       <c r="F420" s="23">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="G420" s="23">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H420" s="14">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="I420" s="14">
         <v>12</v>
@@ -14873,28 +14873,28 @@
     </row>
     <row r="421" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A421" s="66" t="str">
-        <f t="shared" si="33"/>
-        <v>5375</v>
+        <f t="shared" si="34"/>
+        <v>5855</v>
       </c>
       <c r="B421" s="42" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C421" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D421" s="27">
-        <v>1003171465375</v>
+        <v>1003174565855</v>
       </c>
       <c r="E421" s="24"/>
       <c r="F421" s="23">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="G421" s="23">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H421" s="14">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="I421" s="14">
         <v>12</v>
@@ -14903,28 +14903,28 @@
     </row>
     <row r="422" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A422" s="66" t="str">
-        <f t="shared" si="33"/>
-        <v>6171</v>
+        <f t="shared" si="34"/>
+        <v>5375</v>
       </c>
       <c r="B422" s="42" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C422" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D422" s="27">
-        <v>1003175086171</v>
+        <v>1003171465375</v>
       </c>
       <c r="E422" s="24"/>
       <c r="F422" s="23">
-        <v>1.1499999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="G422" s="23">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H422" s="14">
-        <v>2.2999999999999998</v>
+        <v>2.6</v>
       </c>
       <c r="I422" s="14">
         <v>12</v>
@@ -14933,28 +14933,28 @@
     </row>
     <row r="423" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A423" s="66" t="str">
-        <f t="shared" si="33"/>
-        <v>6198</v>
+        <f t="shared" si="34"/>
+        <v>6171</v>
       </c>
       <c r="B423" s="42" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C423" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D423" s="27">
-        <v>1003175136198</v>
+        <v>1003175086171</v>
       </c>
       <c r="E423" s="24"/>
       <c r="F423" s="23">
-        <v>1</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="G423" s="23">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H423" s="14">
-        <v>2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I423" s="14">
         <v>12</v>
@@ -14963,88 +14963,88 @@
     </row>
     <row r="424" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A424" s="66" t="str">
-        <f t="shared" si="33"/>
-        <v>5399</v>
+        <f t="shared" si="34"/>
+        <v>6198</v>
       </c>
       <c r="B424" s="42" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C424" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D424" s="27">
-        <v>1003171585399</v>
+        <v>1003175136198</v>
       </c>
       <c r="E424" s="24"/>
       <c r="F424" s="23">
         <v>1</v>
       </c>
       <c r="G424" s="23">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H424" s="14">
         <v>2</v>
       </c>
       <c r="I424" s="14">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J424" s="33"/>
     </row>
     <row r="425" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A425" s="66" t="str">
-        <f t="shared" si="33"/>
-        <v>5665</v>
+        <f t="shared" si="34"/>
+        <v>5399</v>
       </c>
       <c r="B425" s="42" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C425" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D425" s="27">
-        <v>1003171725665</v>
+        <v>1003171585399</v>
       </c>
       <c r="E425" s="24"/>
       <c r="F425" s="23">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="G425" s="23">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H425" s="14">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="I425" s="14">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J425" s="33"/>
     </row>
     <row r="426" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A426" s="66" t="str">
-        <f t="shared" si="33"/>
-        <v>4793</v>
+        <f t="shared" si="34"/>
+        <v>5665</v>
       </c>
       <c r="B426" s="42" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C426" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D426" s="27">
-        <v>1003171734793</v>
+        <v>1003171725665</v>
       </c>
       <c r="E426" s="24"/>
       <c r="F426" s="23">
-        <v>1.05</v>
+        <v>1.8</v>
       </c>
       <c r="G426" s="23">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H426" s="14">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="I426" s="14">
         <v>12</v>
@@ -15053,28 +15053,28 @@
     </row>
     <row r="427" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A427" s="66" t="str">
-        <f t="shared" si="33"/>
-        <v>4720</v>
+        <f t="shared" si="34"/>
+        <v>4793</v>
       </c>
       <c r="B427" s="42" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C427" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D427" s="27">
-        <v>1003171524720</v>
+        <v>1003171734793</v>
       </c>
       <c r="E427" s="24"/>
       <c r="F427" s="23">
-        <v>1.28</v>
+        <v>1.05</v>
       </c>
       <c r="G427" s="23">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H427" s="14">
-        <v>2.56</v>
+        <v>2.1</v>
       </c>
       <c r="I427" s="14">
         <v>12</v>
@@ -15083,28 +15083,28 @@
     </row>
     <row r="428" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A428" s="66" t="str">
-        <f t="shared" si="33"/>
-        <v>5486</v>
+        <f t="shared" si="34"/>
+        <v>4720</v>
       </c>
       <c r="B428" s="42" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C428" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D428" s="27">
-        <v>1003173585486</v>
+        <v>1003171524720</v>
       </c>
       <c r="E428" s="24"/>
       <c r="F428" s="23">
-        <v>0.5</v>
+        <v>1.28</v>
       </c>
       <c r="G428" s="23">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H428" s="14">
-        <v>2</v>
+        <v>2.56</v>
       </c>
       <c r="I428" s="14">
         <v>12</v>
@@ -15113,28 +15113,28 @@
     </row>
     <row r="429" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A429" s="66" t="str">
-        <f t="shared" si="33"/>
-        <v>4963</v>
+        <f t="shared" si="34"/>
+        <v>5486</v>
       </c>
       <c r="B429" s="42" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C429" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D429" s="27">
-        <v>1003173564963</v>
+        <v>1003173585486</v>
       </c>
       <c r="E429" s="24"/>
       <c r="F429" s="23">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="G429" s="23">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H429" s="14">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="I429" s="14">
         <v>12</v>
@@ -15143,54 +15143,54 @@
     </row>
     <row r="430" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A430" s="66" t="str">
-        <f t="shared" si="33"/>
-        <v>4866</v>
+        <f t="shared" si="34"/>
+        <v>4963</v>
       </c>
       <c r="B430" s="42" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C430" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D430" s="27">
-        <v>1003171674866</v>
+        <v>1003173564963</v>
       </c>
       <c r="E430" s="24"/>
       <c r="F430" s="23">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="G430" s="23">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H430" s="14">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="I430" s="14">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J430" s="33"/>
     </row>
     <row r="431" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A431" s="66" t="str">
-        <f t="shared" si="33"/>
-        <v>5466</v>
+        <f t="shared" si="34"/>
+        <v>4866</v>
       </c>
       <c r="B431" s="42" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C431" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D431" s="27">
-        <v>1003174005466</v>
+        <v>1003171674866</v>
       </c>
       <c r="E431" s="24"/>
       <c r="F431" s="23">
         <v>0.4</v>
       </c>
       <c r="G431" s="23">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H431" s="14">
@@ -15203,24 +15203,24 @@
     </row>
     <row r="432" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A432" s="66" t="str">
-        <f t="shared" si="33"/>
-        <v>5765</v>
+        <f t="shared" si="34"/>
+        <v>5466</v>
       </c>
       <c r="B432" s="42" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C432" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D432" s="27">
-        <v>1003171685765</v>
+        <v>1003174005466</v>
       </c>
       <c r="E432" s="24"/>
       <c r="F432" s="23">
         <v>0.4</v>
       </c>
       <c r="G432" s="23">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H432" s="14">
@@ -15233,24 +15233,24 @@
     </row>
     <row r="433" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A433" s="66" t="str">
-        <f t="shared" ref="A433:A464" si="35">RIGHT(D433,4)</f>
-        <v>5633</v>
+        <f t="shared" si="34"/>
+        <v>5765</v>
       </c>
       <c r="B433" s="42" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C433" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D433" s="27">
-        <v>1003173995633</v>
+        <v>1003171685765</v>
       </c>
       <c r="E433" s="24"/>
       <c r="F433" s="23">
         <v>0.4</v>
       </c>
       <c r="G433" s="23">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H433" s="14">
@@ -15263,28 +15263,28 @@
     </row>
     <row r="434" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A434" s="66" t="str">
-        <f t="shared" si="35"/>
-        <v>6552</v>
+        <f t="shared" ref="A434:A465" si="36">RIGHT(D434,4)</f>
+        <v>5633</v>
       </c>
       <c r="B434" s="42" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C434" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D434" s="27">
-        <v>1003173996552</v>
+        <v>1003173995633</v>
       </c>
       <c r="E434" s="24"/>
       <c r="F434" s="23">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="G434" s="23">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H434" s="14">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="I434" s="14">
         <v>14</v>
@@ -15293,28 +15293,28 @@
     </row>
     <row r="435" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A435" s="66" t="str">
-        <f t="shared" si="35"/>
-        <v>5465</v>
+        <f t="shared" si="36"/>
+        <v>6552</v>
       </c>
       <c r="B435" s="42" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C435" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D435" s="27">
-        <v>1003173995465</v>
+        <v>1003173996552</v>
       </c>
       <c r="E435" s="24"/>
       <c r="F435" s="23">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="G435" s="23">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H435" s="14">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="I435" s="14">
         <v>14</v>
@@ -15323,24 +15323,24 @@
     </row>
     <row r="436" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A436" s="66" t="str">
-        <f t="shared" si="35"/>
-        <v>5340</v>
+        <f t="shared" si="36"/>
+        <v>5465</v>
       </c>
       <c r="B436" s="42" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C436" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D436" s="27">
-        <v>1003173995340</v>
+        <v>1003173995465</v>
       </c>
       <c r="E436" s="24"/>
       <c r="F436" s="23">
         <v>0.4</v>
       </c>
       <c r="G436" s="23">
-        <f t="shared" ref="G436:G467" si="36">E436</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H436" s="14">
@@ -15353,24 +15353,24 @@
     </row>
     <row r="437" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A437" s="66" t="str">
-        <f t="shared" si="35"/>
-        <v>4877</v>
+        <f t="shared" si="36"/>
+        <v>5340</v>
       </c>
       <c r="B437" s="42" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C437" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D437" s="27">
-        <v>1003173124877</v>
+        <v>1003173995340</v>
       </c>
       <c r="E437" s="24"/>
       <c r="F437" s="23">
         <v>0.4</v>
       </c>
       <c r="G437" s="23">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="G437:G468" si="37">E437</f>
         <v>0</v>
       </c>
       <c r="H437" s="14">
@@ -15383,24 +15383,24 @@
     </row>
     <row r="438" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A438" s="66" t="str">
-        <f t="shared" si="35"/>
-        <v>6389</v>
+        <f t="shared" si="36"/>
+        <v>4877</v>
       </c>
       <c r="B438" s="42" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C438" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D438" s="27">
-        <v>1003173126389</v>
+        <v>1003173124877</v>
       </c>
       <c r="E438" s="24"/>
       <c r="F438" s="23">
         <v>0.4</v>
       </c>
       <c r="G438" s="23">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="H438" s="14">
@@ -15413,54 +15413,54 @@
     </row>
     <row r="439" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A439" s="66" t="str">
-        <f t="shared" si="35"/>
-        <v>4780</v>
+        <f t="shared" si="36"/>
+        <v>6389</v>
       </c>
       <c r="B439" s="42" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C439" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D439" s="27">
-        <v>1003173284780</v>
+        <v>1003173126389</v>
       </c>
       <c r="E439" s="24"/>
       <c r="F439" s="23">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="G439" s="23">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="H439" s="14">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="I439" s="14">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J439" s="33"/>
     </row>
     <row r="440" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A440" s="66" t="str">
-        <f t="shared" si="35"/>
-        <v>5588</v>
+        <f t="shared" si="36"/>
+        <v>4780</v>
       </c>
       <c r="B440" s="42" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C440" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D440" s="27">
-        <v>1003174295588</v>
+        <v>1003173284780</v>
       </c>
       <c r="E440" s="24"/>
       <c r="F440" s="23">
         <v>0.3</v>
       </c>
       <c r="G440" s="23">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="H440" s="14">
@@ -15473,28 +15473,28 @@
     </row>
     <row r="441" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A441" s="66" t="str">
-        <f t="shared" si="35"/>
-        <v>5381</v>
+        <f t="shared" si="36"/>
+        <v>5588</v>
       </c>
       <c r="B441" s="42" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C441" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D441" s="27">
-        <v>1003171495381</v>
+        <v>1003174295588</v>
       </c>
       <c r="E441" s="24"/>
       <c r="F441" s="23">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="G441" s="23">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="H441" s="14">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="I441" s="14">
         <v>12</v>
@@ -15503,28 +15503,28 @@
     </row>
     <row r="442" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A442" s="66" t="str">
-        <f t="shared" si="35"/>
-        <v>4964</v>
+        <f t="shared" si="36"/>
+        <v>5381</v>
       </c>
       <c r="B442" s="42" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C442" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D442" s="27">
-        <v>1003173604964</v>
+        <v>1003171495381</v>
       </c>
       <c r="E442" s="24"/>
       <c r="F442" s="23">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="G442" s="23">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="H442" s="14">
-        <v>1.32</v>
+        <v>1.6</v>
       </c>
       <c r="I442" s="14">
         <v>12</v>
@@ -15533,24 +15533,24 @@
     </row>
     <row r="443" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A443" s="66" t="str">
-        <f t="shared" si="35"/>
-        <v>6390</v>
+        <f t="shared" si="36"/>
+        <v>4964</v>
       </c>
       <c r="B443" s="42" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C443" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D443" s="27">
-        <v>1003173606390</v>
+        <v>1003173604964</v>
       </c>
       <c r="E443" s="24"/>
       <c r="F443" s="23">
         <v>0.33</v>
       </c>
       <c r="G443" s="23">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="H443" s="14">
@@ -15563,28 +15563,28 @@
     </row>
     <row r="444" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A444" s="66" t="str">
-        <f t="shared" si="35"/>
-        <v>5583</v>
+        <f t="shared" si="36"/>
+        <v>6390</v>
       </c>
       <c r="B444" s="42" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C444" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D444" s="27">
-        <v>1003174325583</v>
+        <v>1003173606390</v>
       </c>
       <c r="E444" s="24"/>
       <c r="F444" s="23">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
       <c r="G444" s="23">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="H444" s="14">
-        <v>1.2</v>
+        <v>1.32</v>
       </c>
       <c r="I444" s="14">
         <v>12</v>
@@ -15593,58 +15593,58 @@
     </row>
     <row r="445" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A445" s="66" t="str">
-        <f t="shared" si="35"/>
-        <v>5439</v>
+        <f t="shared" si="36"/>
+        <v>5583</v>
       </c>
       <c r="B445" s="42" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C445" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D445" s="27">
-        <v>1003171355439</v>
+        <v>1003174325583</v>
       </c>
       <c r="E445" s="24"/>
       <c r="F445" s="23">
-        <v>1.46</v>
+        <v>0.3</v>
       </c>
       <c r="G445" s="23">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="H445" s="14">
-        <v>7.3</v>
+        <v>1.2</v>
       </c>
       <c r="I445" s="14">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="J445" s="33"/>
     </row>
     <row r="446" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A446" s="66" t="str">
-        <f t="shared" si="35"/>
-        <v>5358</v>
+        <f t="shared" si="36"/>
+        <v>5439</v>
       </c>
       <c r="B446" s="42" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C446" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D446" s="27">
-        <v>1003171415358</v>
+        <v>1003171355439</v>
       </c>
       <c r="E446" s="24"/>
       <c r="F446" s="23">
-        <v>0.95</v>
+        <v>1.46</v>
       </c>
       <c r="G446" s="23">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="H446" s="14">
-        <v>5.7</v>
+        <v>7.3</v>
       </c>
       <c r="I446" s="14">
         <v>21</v>
@@ -15653,148 +15653,148 @@
     </row>
     <row r="447" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A447" s="66" t="str">
-        <f t="shared" si="35"/>
-        <v>5380</v>
+        <f t="shared" si="36"/>
+        <v>5358</v>
       </c>
       <c r="B447" s="42" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C447" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D447" s="27">
-        <v>1003171485380</v>
+        <v>1003171415358</v>
       </c>
       <c r="E447" s="24"/>
       <c r="F447" s="23">
-        <v>1.25</v>
+        <v>0.95</v>
       </c>
       <c r="G447" s="23">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="H447" s="14">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="I447" s="14">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="J447" s="33"/>
     </row>
     <row r="448" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A448" s="66" t="str">
-        <f t="shared" si="35"/>
-        <v>5408</v>
+        <f t="shared" si="36"/>
+        <v>5380</v>
       </c>
       <c r="B448" s="42" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C448" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D448" s="27">
-        <v>1003171625408</v>
+        <v>1003171485380</v>
       </c>
       <c r="E448" s="24"/>
       <c r="F448" s="23">
-        <v>1.05</v>
+        <v>1.25</v>
       </c>
       <c r="G448" s="23">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="H448" s="14">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I448" s="14">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J448" s="33"/>
     </row>
     <row r="449" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A449" s="66" t="str">
-        <f t="shared" si="35"/>
-        <v>4874</v>
+        <f t="shared" si="36"/>
+        <v>5408</v>
       </c>
       <c r="B449" s="42" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C449" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D449" s="27">
-        <v>1003171684874</v>
+        <v>1003171625408</v>
       </c>
       <c r="E449" s="24"/>
       <c r="F449" s="23">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="G449" s="23">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="H449" s="14">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="I449" s="14">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J449" s="33"/>
     </row>
     <row r="450" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A450" s="66" t="str">
-        <f t="shared" si="35"/>
-        <v>5429</v>
+        <f t="shared" si="36"/>
+        <v>4874</v>
       </c>
       <c r="B450" s="42" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C450" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D450" s="27">
-        <v>1003171735429</v>
+        <v>1003171684874</v>
       </c>
       <c r="E450" s="24"/>
       <c r="F450" s="23">
-        <v>1.2250000000000001</v>
+        <v>1</v>
       </c>
       <c r="G450" s="23">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="H450" s="14">
-        <v>4.9000000000000004</v>
+        <v>4</v>
       </c>
       <c r="I450" s="14">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J450" s="33"/>
     </row>
     <row r="451" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A451" s="66" t="str">
-        <f t="shared" si="35"/>
-        <v>5434</v>
+        <f t="shared" si="36"/>
+        <v>5429</v>
       </c>
       <c r="B451" s="42" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C451" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D451" s="27">
-        <v>1003171745434</v>
+        <v>1003171735429</v>
       </c>
       <c r="E451" s="24"/>
       <c r="F451" s="23">
-        <v>1.25</v>
+        <v>1.2250000000000001</v>
       </c>
       <c r="G451" s="23">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="H451" s="14">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="I451" s="14">
         <v>12</v>
@@ -15803,28 +15803,28 @@
     </row>
     <row r="452" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A452" s="66" t="str">
-        <f t="shared" si="35"/>
-        <v>5436</v>
+        <f t="shared" si="36"/>
+        <v>5434</v>
       </c>
       <c r="B452" s="42" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C452" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D452" s="27">
-        <v>1003171755436</v>
+        <v>1003171745434</v>
       </c>
       <c r="E452" s="24"/>
       <c r="F452" s="23">
-        <v>1.1499999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="G452" s="23">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="H452" s="14">
-        <v>4.5999999999999996</v>
+        <v>5</v>
       </c>
       <c r="I452" s="14">
         <v>12</v>
@@ -15833,88 +15833,88 @@
     </row>
     <row r="453" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A453" s="66" t="str">
-        <f t="shared" si="35"/>
-        <v>5354</v>
+        <f t="shared" si="36"/>
+        <v>5436</v>
       </c>
       <c r="B453" s="42" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C453" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D453" s="27">
-        <v>1003171395354</v>
+        <v>1003171755436</v>
       </c>
       <c r="E453" s="24"/>
       <c r="F453" s="23">
-        <v>1.32</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="G453" s="23">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="H453" s="14">
-        <v>6.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I453" s="14">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J453" s="33"/>
     </row>
     <row r="454" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A454" s="66" t="str">
-        <f t="shared" si="35"/>
-        <v>5367</v>
+        <f t="shared" si="36"/>
+        <v>5354</v>
       </c>
       <c r="B454" s="42" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C454" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D454" s="27">
-        <v>1003171455367</v>
+        <v>1003171395354</v>
       </c>
       <c r="E454" s="24"/>
       <c r="F454" s="23">
-        <v>1.7</v>
+        <v>1.32</v>
       </c>
       <c r="G454" s="23">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="H454" s="14">
-        <v>8.5</v>
+        <v>6.6</v>
       </c>
       <c r="I454" s="14">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J454" s="33"/>
     </row>
     <row r="455" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A455" s="66" t="str">
-        <f t="shared" si="35"/>
-        <v>5371</v>
+        <f t="shared" si="36"/>
+        <v>5367</v>
       </c>
       <c r="B455" s="42" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C455" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D455" s="27">
-        <v>1003171465371</v>
+        <v>1003171455367</v>
       </c>
       <c r="E455" s="24"/>
       <c r="F455" s="23">
         <v>1.7</v>
       </c>
       <c r="G455" s="23">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="H455" s="14">
-        <v>10.199999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="I455" s="14">
         <v>21</v>
@@ -15923,88 +15923,88 @@
     </row>
     <row r="456" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A456" s="66" t="str">
-        <f t="shared" si="35"/>
-        <v>5373</v>
+        <f t="shared" si="36"/>
+        <v>5371</v>
       </c>
       <c r="B456" s="42" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C456" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D456" s="27">
-        <v>1003171465373</v>
+        <v>1003171465371</v>
       </c>
       <c r="E456" s="24"/>
       <c r="F456" s="23">
-        <v>2.867</v>
+        <v>1.7</v>
       </c>
       <c r="G456" s="23">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="H456" s="14">
-        <v>8.6</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="I456" s="14">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J456" s="33"/>
     </row>
     <row r="457" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A457" s="66" t="str">
-        <f t="shared" si="35"/>
-        <v>5385</v>
+        <f t="shared" si="36"/>
+        <v>5373</v>
       </c>
       <c r="B457" s="42" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C457" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D457" s="27">
-        <v>1003171545385</v>
+        <v>1003171465373</v>
       </c>
       <c r="E457" s="24"/>
       <c r="F457" s="23">
-        <v>3</v>
+        <v>2.867</v>
       </c>
       <c r="G457" s="23">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="H457" s="14">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="I457" s="14">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J457" s="33"/>
     </row>
     <row r="458" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A458" s="66" t="str">
-        <f t="shared" si="35"/>
-        <v>5392</v>
+        <f t="shared" si="36"/>
+        <v>5385</v>
       </c>
       <c r="B458" s="42" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C458" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D458" s="27">
-        <v>1003171765392</v>
+        <v>1003171545385</v>
       </c>
       <c r="E458" s="24"/>
       <c r="F458" s="23">
-        <v>5.0999999999999996</v>
+        <v>3</v>
       </c>
       <c r="G458" s="23">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="H458" s="14">
-        <v>5.0999999999999996</v>
+        <v>9</v>
       </c>
       <c r="I458" s="14">
         <v>21</v>
@@ -16013,58 +16013,58 @@
     </row>
     <row r="459" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A459" s="66" t="str">
-        <f t="shared" si="35"/>
-        <v>5402</v>
+        <f t="shared" si="36"/>
+        <v>5392</v>
       </c>
       <c r="B459" s="42" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C459" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D459" s="27">
-        <v>1003171595402</v>
+        <v>1003171765392</v>
       </c>
       <c r="E459" s="24"/>
       <c r="F459" s="23">
-        <v>0.872</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G459" s="23">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="H459" s="14">
-        <v>6.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="I459" s="14">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J459" s="33"/>
     </row>
     <row r="460" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A460" s="66" t="str">
-        <f t="shared" si="35"/>
-        <v>5407</v>
+        <f t="shared" si="36"/>
+        <v>5402</v>
       </c>
       <c r="B460" s="42" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C460" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D460" s="27">
-        <v>1003171595407</v>
+        <v>1003171595402</v>
       </c>
       <c r="E460" s="24"/>
       <c r="F460" s="23">
-        <v>1.663</v>
+        <v>0.872</v>
       </c>
       <c r="G460" s="23">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="H460" s="14">
-        <v>6.65</v>
+        <v>6.1</v>
       </c>
       <c r="I460" s="14">
         <v>17</v>
@@ -16073,148 +16073,148 @@
     </row>
     <row r="461" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A461" s="66" t="str">
-        <f t="shared" si="35"/>
-        <v>5425</v>
+        <f t="shared" si="36"/>
+        <v>5407</v>
       </c>
       <c r="B461" s="42" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C461" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D461" s="27">
-        <v>1003171735425</v>
+        <v>1003171595407</v>
       </c>
       <c r="E461" s="24"/>
       <c r="F461" s="23">
-        <v>1.925</v>
+        <v>1.663</v>
       </c>
       <c r="G461" s="23">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="H461" s="14">
-        <v>7.7</v>
+        <v>6.65</v>
       </c>
       <c r="I461" s="14">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J461" s="33"/>
     </row>
     <row r="462" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A462" s="66" t="str">
-        <f t="shared" si="35"/>
-        <v>5418</v>
+        <f t="shared" si="36"/>
+        <v>5425</v>
       </c>
       <c r="B462" s="42" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C462" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D462" s="27">
-        <v>1003162215418</v>
+        <v>1003171735425</v>
       </c>
       <c r="E462" s="24"/>
       <c r="F462" s="23">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="G462" s="23">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="H462" s="14">
-        <v>4</v>
+        <v>7.7</v>
       </c>
       <c r="I462" s="14">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="J462" s="33"/>
     </row>
     <row r="463" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A463" s="66" t="str">
-        <f t="shared" si="35"/>
-        <v>6409</v>
+        <f t="shared" si="36"/>
+        <v>5418</v>
       </c>
       <c r="B463" s="42" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C463" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D463" s="27">
-        <v>1003171356409</v>
+        <v>1003162215418</v>
       </c>
       <c r="E463" s="24"/>
       <c r="F463" s="23">
-        <v>0.96</v>
+        <v>2</v>
       </c>
       <c r="G463" s="23">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="H463" s="14">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="I463" s="14">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="J463" s="33"/>
     </row>
     <row r="464" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A464" s="66" t="str">
-        <f t="shared" si="35"/>
-        <v>6099</v>
+        <f t="shared" si="36"/>
+        <v>6409</v>
       </c>
       <c r="B464" s="42" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C464" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D464" s="27">
-        <v>1002172146099</v>
+        <v>1003171356409</v>
       </c>
       <c r="E464" s="24"/>
       <c r="F464" s="23">
-        <v>0.73399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="G464" s="23">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="H464" s="14">
-        <v>4.4000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="I464" s="14">
-        <v>365</v>
+        <v>21</v>
       </c>
       <c r="J464" s="33"/>
     </row>
     <row r="465" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A465" s="66" t="str">
-        <f t="shared" ref="A465:A476" si="37">RIGHT(D465,4)</f>
-        <v>6100</v>
+        <f t="shared" si="36"/>
+        <v>6099</v>
       </c>
       <c r="B465" s="42" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C465" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D465" s="27">
-        <v>1002174986100</v>
+        <v>1002172146099</v>
       </c>
       <c r="E465" s="24"/>
       <c r="F465" s="23">
-        <v>0.66</v>
+        <v>0.73399999999999999</v>
       </c>
       <c r="G465" s="23">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="H465" s="14">
-        <v>3.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I465" s="14">
         <v>365</v>
@@ -16223,28 +16223,28 @@
     </row>
     <row r="466" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A466" s="66" t="str">
-        <f t="shared" si="37"/>
-        <v>6101</v>
+        <f t="shared" ref="A466:A477" si="38">RIGHT(D466,4)</f>
+        <v>6100</v>
       </c>
       <c r="B466" s="42" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C466" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D466" s="27">
-        <v>1002174996101</v>
+        <v>1002174986100</v>
       </c>
       <c r="E466" s="24"/>
       <c r="F466" s="23">
-        <v>0.76</v>
+        <v>0.66</v>
       </c>
       <c r="G466" s="23">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="H466" s="14">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="I466" s="14">
         <v>365</v>
@@ -16253,28 +16253,28 @@
     </row>
     <row r="467" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A467" s="66" t="str">
-        <f t="shared" si="37"/>
-        <v>6102</v>
+        <f t="shared" si="38"/>
+        <v>6101</v>
       </c>
       <c r="B467" s="42" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C467" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D467" s="27">
-        <v>1002175006102</v>
+        <v>1002174996101</v>
       </c>
       <c r="E467" s="24"/>
       <c r="F467" s="23">
-        <v>0.47199999999999998</v>
+        <v>0.76</v>
       </c>
       <c r="G467" s="23">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="H467" s="14">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="I467" s="14">
         <v>365</v>
@@ -16283,58 +16283,58 @@
     </row>
     <row r="468" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A468" s="66" t="str">
-        <f t="shared" si="37"/>
-        <v>6019</v>
+        <f t="shared" si="38"/>
+        <v>6102</v>
       </c>
       <c r="B468" s="42" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C468" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D468" s="27">
-        <v>1002162166019</v>
+        <v>1002175006102</v>
       </c>
       <c r="E468" s="24"/>
       <c r="F468" s="23">
-        <v>1</v>
+        <v>0.47199999999999998</v>
       </c>
       <c r="G468" s="23">
-        <f t="shared" ref="G468:G476" si="38">E468</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="H468" s="14">
-        <v>12</v>
+        <v>3.3</v>
       </c>
       <c r="I468" s="14">
-        <v>120</v>
+        <v>365</v>
       </c>
       <c r="J468" s="33"/>
     </row>
     <row r="469" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A469" s="66" t="str">
-        <f t="shared" si="37"/>
-        <v>6004</v>
+        <f t="shared" si="38"/>
+        <v>6019</v>
       </c>
       <c r="B469" s="42" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C469" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D469" s="27">
-        <v>1002162156004</v>
+        <v>1002162166019</v>
       </c>
       <c r="E469" s="24"/>
       <c r="F469" s="23">
         <v>1</v>
       </c>
       <c r="G469" s="23">
-        <f t="shared" si="38"/>
+        <f t="shared" ref="G469:G477" si="39">E469</f>
         <v>0</v>
       </c>
       <c r="H469" s="14">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I469" s="14">
         <v>120</v>
@@ -16343,84 +16343,84 @@
     </row>
     <row r="470" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A470" s="66" t="str">
-        <f t="shared" si="37"/>
-        <v>5417</v>
+        <f t="shared" si="38"/>
+        <v>6004</v>
       </c>
       <c r="B470" s="42" t="s">
-        <v>402</v>
+        <v>464</v>
       </c>
       <c r="C470" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D470" s="27">
-        <v>1002162215417</v>
+        <v>1002162156004</v>
       </c>
       <c r="E470" s="24"/>
       <c r="F470" s="23">
-        <v>2.0339999999999998</v>
+        <v>1</v>
       </c>
       <c r="G470" s="23">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="H470" s="14">
-        <v>6.1</v>
+        <v>8</v>
       </c>
       <c r="I470" s="14">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="J470" s="33"/>
     </row>
     <row r="471" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A471" s="66" t="str">
-        <f t="shared" si="37"/>
-        <v>4933</v>
+        <f t="shared" si="38"/>
+        <v>5417</v>
       </c>
       <c r="B471" s="42" t="s">
-        <v>466</v>
+        <v>401</v>
       </c>
       <c r="C471" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D471" s="27">
-        <v>1002162094933</v>
+        <v>1002162215417</v>
       </c>
       <c r="E471" s="24"/>
       <c r="F471" s="23">
-        <v>10</v>
+        <v>2.0339999999999998</v>
       </c>
       <c r="G471" s="23">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="H471" s="14">
-        <v>10</v>
+        <v>6.1</v>
       </c>
       <c r="I471" s="14">
-        <v>365</v>
+        <v>90</v>
       </c>
       <c r="J471" s="33"/>
     </row>
     <row r="472" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A472" s="66" t="str">
-        <f t="shared" si="37"/>
-        <v>4934</v>
+        <f t="shared" si="38"/>
+        <v>4933</v>
       </c>
       <c r="B472" s="42" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C472" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D472" s="27">
-        <v>1002162094934</v>
+        <v>1002162094933</v>
       </c>
       <c r="E472" s="24"/>
       <c r="F472" s="23">
         <v>10</v>
       </c>
       <c r="G472" s="23">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="H472" s="14">
@@ -16433,24 +16433,24 @@
     </row>
     <row r="473" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A473" s="66" t="str">
-        <f t="shared" si="37"/>
-        <v>4935</v>
+        <f t="shared" si="38"/>
+        <v>4934</v>
       </c>
       <c r="B473" s="42" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C473" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D473" s="27">
-        <v>1002163474935</v>
+        <v>1002162094934</v>
       </c>
       <c r="E473" s="24"/>
       <c r="F473" s="23">
         <v>10</v>
       </c>
       <c r="G473" s="23">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="H473" s="14">
@@ -16463,24 +16463,24 @@
     </row>
     <row r="474" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A474" s="66" t="str">
-        <f t="shared" si="37"/>
-        <v>4936</v>
+        <f t="shared" si="38"/>
+        <v>4935</v>
       </c>
       <c r="B474" s="42" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C474" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D474" s="27">
-        <v>1002162144936</v>
+        <v>1002163474935</v>
       </c>
       <c r="E474" s="24"/>
       <c r="F474" s="23">
         <v>10</v>
       </c>
       <c r="G474" s="23">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="H474" s="14">
@@ -16493,95 +16493,115 @@
     </row>
     <row r="475" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A475" s="66" t="str">
-        <f t="shared" si="37"/>
-        <v>5351</v>
+        <f t="shared" si="38"/>
+        <v>4936</v>
       </c>
       <c r="B475" s="42" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C475" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D475" s="27">
-        <v>1002182025351</v>
+        <v>1002162144936</v>
       </c>
       <c r="E475" s="24"/>
       <c r="F475" s="23">
-        <v>1.532</v>
+        <v>10</v>
       </c>
       <c r="G475" s="23">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="H475" s="14">
-        <v>24.51</v>
+        <v>10</v>
       </c>
       <c r="I475" s="14">
         <v>365</v>
       </c>
       <c r="J475" s="33"/>
     </row>
-    <row r="476" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A476" s="66" t="str">
-        <f t="shared" si="37"/>
-        <v>5431</v>
+        <f t="shared" si="38"/>
+        <v>5351</v>
       </c>
       <c r="B476" s="42" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C476" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D476" s="27">
-        <v>1002182135431</v>
+        <v>1002182025351</v>
       </c>
       <c r="E476" s="24"/>
       <c r="F476" s="23">
-        <v>2.125</v>
+        <v>1.532</v>
       </c>
       <c r="G476" s="23">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="H476" s="14">
-        <v>21.25</v>
+        <v>24.51</v>
       </c>
       <c r="I476" s="14">
         <v>365</v>
       </c>
       <c r="J476" s="33"/>
     </row>
-    <row r="477" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A477" s="70"/>
-      <c r="B477" s="55" t="s">
-        <v>472</v>
-      </c>
-      <c r="C477" s="16"/>
-      <c r="D477" s="43"/>
-      <c r="E477" s="17">
-        <f>SUM(E5:E406)</f>
-        <v>0</v>
-      </c>
-      <c r="F477" s="17"/>
-      <c r="G477" s="17">
-        <f>SUM(G11:G406)</f>
-        <v>0</v>
-      </c>
-      <c r="H477" s="17"/>
-      <c r="I477" s="17"/>
-      <c r="J477" s="17"/>
-    </row>
-    <row r="478" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B478" s="44"/>
-      <c r="C478" s="18"/>
-      <c r="D478" s="48"/>
-      <c r="F478" s="19"/>
-      <c r="G478" s="19"/>
-      <c r="H478" s="20"/>
-      <c r="I478" s="20"/>
-      <c r="J478" s="21"/>
-    </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A477" s="66" t="str">
+        <f t="shared" si="38"/>
+        <v>5431</v>
+      </c>
+      <c r="B477" s="42" t="s">
+        <v>470</v>
+      </c>
+      <c r="C477" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D477" s="27">
+        <v>1002182135431</v>
+      </c>
+      <c r="E477" s="24"/>
+      <c r="F477" s="23">
+        <v>2.125</v>
+      </c>
+      <c r="G477" s="23">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="H477" s="14">
+        <v>21.25</v>
+      </c>
+      <c r="I477" s="14">
+        <v>365</v>
+      </c>
+      <c r="J477" s="33"/>
+    </row>
+    <row r="478" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A478" s="70"/>
+      <c r="B478" s="55" t="s">
+        <v>471</v>
+      </c>
+      <c r="C478" s="16"/>
+      <c r="D478" s="43"/>
+      <c r="E478" s="17">
+        <f>SUM(E5:E407)</f>
+        <v>0</v>
+      </c>
+      <c r="F478" s="17"/>
+      <c r="G478" s="17">
+        <f>SUM(G11:G407)</f>
+        <v>0</v>
+      </c>
+      <c r="H478" s="17"/>
+      <c r="I478" s="17"/>
+      <c r="J478" s="17"/>
+    </row>
+    <row r="479" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B479" s="44"/>
       <c r="C479" s="18"/>
       <c r="D479" s="48"/>
@@ -31811,17 +31831,27 @@
       <c r="I2001" s="20"/>
       <c r="J2001" s="21"/>
     </row>
+    <row r="2002" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2002" s="44"/>
+      <c r="C2002" s="18"/>
+      <c r="D2002" s="48"/>
+      <c r="F2002" s="19"/>
+      <c r="G2002" s="19"/>
+      <c r="H2002" s="20"/>
+      <c r="I2002" s="20"/>
+      <c r="J2002" s="21"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B9:AY478" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="B9:AY479" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="G3:J3"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B387" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B388" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>40</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" showInputMessage="1" showErrorMessage="1" sqref="D404:D476" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="textLength" operator="equal" showInputMessage="1" showErrorMessage="1" sqref="D405:D477" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>13</formula1>
     </dataValidation>
   </dataValidations>
